--- a/xls/luceplan/luceplan_originario.xlsx
+++ b/xls/luceplan/luceplan_originario.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="LISTEU" sheetId="1" r:id="rId4"/>
+    <sheet name="LISTEU" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="Excel_BuiltIn__FilterDatabase">LISTEU!$A$1:$F$569</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">LISTEU!$A$1:$G$569</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LISTEU!$A$1:$G$569</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">LISTEU!$A$1:$F$569</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhkShmQLNEM8+PI0/x9YLptQxf3SQ=="/>
     </ext>
@@ -5799,14 +5806,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -5816,7 +5824,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5826,45 +5834,41 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6054,30 +6058,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G569"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.86"/>
-    <col customWidth="1" min="2" max="2" width="32.71"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="6" width="14.14"/>
-    <col customWidth="1" min="7" max="7" width="16.71"/>
-    <col customWidth="1" min="8" max="22" width="8.71"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="22" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6238,7 +6244,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>287.7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>287.7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>259.02</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>259.02</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>347.54</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>347.54</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>335.25</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>335.25</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>273.77</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -6491,7 +6497,7 @@
         <v>273.77</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>246.72</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>248.36</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>239.34</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>241.8</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>76</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>311.48</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>312.3</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>87</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>169.67</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
@@ -6695,10 +6701,10 @@
         <v>93</v>
       </c>
       <c r="G27" s="4">
-        <v>145.08</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>145.08000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
@@ -6718,10 +6724,10 @@
         <v>95</v>
       </c>
       <c r="G28" s="4">
-        <v>145.08</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>145.08000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>96</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>212.3</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>193.44</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>102</v>
       </c>
@@ -6787,10 +6793,10 @@
         <v>106</v>
       </c>
       <c r="G31" s="4">
-        <v>65.57</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>143.44</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>111</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>143.44</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>113</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>232.79</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>118</v>
       </c>
@@ -6879,10 +6885,10 @@
         <v>119</v>
       </c>
       <c r="G35" s="4">
-        <v>140.98</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>140.97999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>120</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>213.93</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>165.57</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>126</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>930.33</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>925.41</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>132</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>774.59</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>136</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>898.36</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>140</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>898.36</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>142</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>672.95</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>146</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>165.57</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>223.77</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>155</v>
       </c>
@@ -7132,10 +7138,10 @@
         <v>159</v>
       </c>
       <c r="G46" s="4">
-        <v>303.28</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>303.27999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>160</v>
       </c>
@@ -7155,10 +7161,10 @@
         <v>162</v>
       </c>
       <c r="G47" s="4">
-        <v>303.28</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>303.27999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>163</v>
       </c>
@@ -7178,10 +7184,10 @@
         <v>165</v>
       </c>
       <c r="G48" s="4">
-        <v>303.28</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>303.27999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>166</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>560.66</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>170</v>
       </c>
@@ -7224,10 +7230,10 @@
         <v>173</v>
       </c>
       <c r="G50" s="4">
-        <v>527.05</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>527.04999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>174</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>702.46</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>178</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>702.46</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>180</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>312.3</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>184</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>312.3</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>186</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>190</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>194</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>196</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>1026.23</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>200</v>
       </c>
@@ -7434,7 +7440,7 @@
         <v>1017.21</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>204</v>
       </c>
@@ -7457,7 +7463,7 @@
         <v>406.56</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>209</v>
       </c>
@@ -7477,10 +7483,10 @@
         <v>212</v>
       </c>
       <c r="G61" s="4">
-        <v>318.85</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>318.85000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>213</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>436.07</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>217</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>221</v>
       </c>
@@ -7543,10 +7549,10 @@
         <v>223</v>
       </c>
       <c r="G64" s="4">
-        <v>282.79</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>282.79000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>224</v>
       </c>
@@ -7566,10 +7572,10 @@
         <v>225</v>
       </c>
       <c r="G65" s="4">
-        <v>275.41</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>275.41000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>226</v>
       </c>
@@ -7589,10 +7595,10 @@
         <v>227</v>
       </c>
       <c r="G66" s="4">
-        <v>275.41</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>275.41000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>228</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>370.49</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>230</v>
       </c>
@@ -7638,7 +7644,7 @@
         <v>367.21</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>234</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>237.7</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>238</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>227.87</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>240</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>220.49</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>244</v>
       </c>
@@ -7730,7 +7736,7 @@
         <v>212.3</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>246</v>
       </c>
@@ -7753,7 +7759,7 @@
         <v>416.39</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>251</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>239.34</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>255</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>185.25</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>259</v>
       </c>
@@ -7822,7 +7828,7 @@
         <v>235.25</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>263</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>191.8</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>267</v>
       </c>
@@ -7865,10 +7871,10 @@
         <v>270</v>
       </c>
       <c r="G78" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>271</v>
       </c>
@@ -7891,7 +7897,7 @@
         <v>147.54</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>275</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>298.36</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>279</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>286.89</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>281</v>
       </c>
@@ -7960,7 +7966,7 @@
         <v>286.89</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>283</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>377.05</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>285</v>
       </c>
@@ -8006,7 +8012,7 @@
         <v>377.05</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>289</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>254.1</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>293</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>244.26</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>295</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>240.98</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>299</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>231.97</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>301</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>421.31</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>305</v>
       </c>
@@ -8144,7 +8150,7 @@
         <v>131.97</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>309</v>
       </c>
@@ -8164,10 +8170,10 @@
         <v>312</v>
       </c>
       <c r="G91" s="4">
-        <v>137.7</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>313</v>
       </c>
@@ -8190,7 +8196,7 @@
         <v>336.89</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>318</v>
       </c>
@@ -8213,7 +8219,7 @@
         <v>279.51</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>322</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>459.02</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>326</v>
       </c>
@@ -8259,7 +8265,7 @@
         <v>398.36</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>331</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>398.36</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>333</v>
       </c>
@@ -8302,10 +8308,10 @@
         <v>336</v>
       </c>
       <c r="G97" s="4">
-        <v>145.08</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>145.08000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>337</v>
       </c>
@@ -8325,10 +8331,10 @@
         <v>338</v>
       </c>
       <c r="G98" s="4">
-        <v>145.08</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>145.08000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>339</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>335.25</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>343</v>
       </c>
@@ -8374,7 +8380,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>349</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>351</v>
       </c>
@@ -8420,7 +8426,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>353</v>
       </c>
@@ -8443,7 +8449,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>356</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>360</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>875.41</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>363</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>63.93</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>368</v>
       </c>
@@ -8535,7 +8541,7 @@
         <v>63.93</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>371</v>
       </c>
@@ -8558,7 +8564,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>375</v>
       </c>
@@ -8581,7 +8587,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>377</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>381</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>383</v>
       </c>
@@ -8650,7 +8656,7 @@
         <v>45.08</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>387</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>45.08</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>389</v>
       </c>
@@ -8696,7 +8702,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>393</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>396</v>
       </c>
@@ -8742,7 +8748,7 @@
         <v>253.28</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>400</v>
       </c>
@@ -8765,7 +8771,7 @@
         <v>253.28</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>403</v>
       </c>
@@ -8782,10 +8788,10 @@
         <v>407</v>
       </c>
       <c r="G118" s="4">
-        <v>40.16</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>40.159999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>408</v>
       </c>
@@ -8805,7 +8811,7 @@
         <v>119.67</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>412</v>
       </c>
@@ -8822,10 +8828,10 @@
         <v>415</v>
       </c>
       <c r="G120" s="4">
-        <v>19.67</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>416</v>
       </c>
@@ -8848,7 +8854,7 @@
         <v>172.13</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>421</v>
       </c>
@@ -8868,10 +8874,10 @@
         <v>422</v>
       </c>
       <c r="G122" s="4">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>423</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>287.7</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>426</v>
       </c>
@@ -8917,7 +8923,7 @@
         <v>180.33</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>430</v>
       </c>
@@ -8940,7 +8946,7 @@
         <v>154.1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>432</v>
       </c>
@@ -8960,10 +8966,10 @@
         <v>433</v>
       </c>
       <c r="G126" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>434</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>45.08</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>438</v>
       </c>
@@ -9003,7 +9009,7 @@
         <v>204.1</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>442</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>446</v>
       </c>
@@ -9046,7 +9052,7 @@
         <v>218.03</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>450</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>186.89</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>453</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>329.51</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>455</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>459</v>
       </c>
@@ -9135,10 +9141,10 @@
         <v>461</v>
       </c>
       <c r="G134" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>462</v>
       </c>
@@ -9161,7 +9167,7 @@
         <v>343.44</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>464</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>468</v>
       </c>
@@ -9198,10 +9204,10 @@
         <v>471</v>
       </c>
       <c r="G137" s="4">
-        <v>65.57</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>472</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>23.77</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>476</v>
       </c>
@@ -9241,10 +9247,10 @@
         <v>479</v>
       </c>
       <c r="G139" s="4">
-        <v>289.34</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>289.33999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>480</v>
       </c>
@@ -9267,7 +9273,7 @@
         <v>241.8</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>483</v>
       </c>
@@ -9287,10 +9293,10 @@
         <v>486</v>
       </c>
       <c r="G141" s="4">
-        <v>304.1</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>304.10000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>487</v>
       </c>
@@ -9313,7 +9319,7 @@
         <v>256.56</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>490</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>252.46</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>495</v>
       </c>
@@ -9356,10 +9362,10 @@
         <v>496</v>
       </c>
       <c r="G144" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>497</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>263.93</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>499</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>272.13</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>503</v>
       </c>
@@ -9428,7 +9434,7 @@
         <v>335.25</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>505</v>
       </c>
@@ -9451,7 +9457,7 @@
         <v>278.69</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>507</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>416.39</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>511</v>
       </c>
@@ -9497,7 +9503,7 @@
         <v>489.34</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>513</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>427.87</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>515</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>566.39</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>519</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>675.41</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>521</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>575.41</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>523</v>
       </c>
@@ -9612,7 +9618,7 @@
         <v>465.57</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>528</v>
       </c>
@@ -9635,7 +9641,7 @@
         <v>82.79</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>533</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>82.79</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>537</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>541</v>
       </c>
@@ -9701,7 +9707,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>545</v>
       </c>
@@ -9724,7 +9730,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>551</v>
       </c>
@@ -9747,7 +9753,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>555</v>
       </c>
@@ -9770,7 +9776,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>559</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>563</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>567</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>63.93</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>571</v>
       </c>
@@ -9862,7 +9868,7 @@
         <v>126.23</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>575</v>
       </c>
@@ -9885,7 +9891,7 @@
         <v>126.23</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>578</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>126.23</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>580</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>110.66</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>585</v>
       </c>
@@ -9951,7 +9957,7 @@
         <v>244.26</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>589</v>
       </c>
@@ -9971,10 +9977,10 @@
         <v>592</v>
       </c>
       <c r="G171" s="4">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>593</v>
       </c>
@@ -9997,7 +10003,7 @@
         <v>219.67</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>597</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>344.26</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>601</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>371.31</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>605</v>
       </c>
@@ -10066,7 +10072,7 @@
         <v>134.43</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>609</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>227.87</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>613</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>82.79</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>618</v>
       </c>
@@ -10135,7 +10141,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>620</v>
       </c>
@@ -10158,7 +10164,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>623</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>31.97</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>627</v>
       </c>
@@ -10204,7 +10210,7 @@
         <v>31.97</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>631</v>
       </c>
@@ -10227,7 +10233,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>635</v>
       </c>
@@ -10250,7 +10256,7 @@
         <v>193.44</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>639</v>
       </c>
@@ -10273,7 +10279,7 @@
         <v>174.59</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>641</v>
       </c>
@@ -10296,7 +10302,7 @@
         <v>165.57</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>643</v>
       </c>
@@ -10316,10 +10322,10 @@
         <v>647</v>
       </c>
       <c r="G186" s="4">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>648</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>287.7</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>650</v>
       </c>
@@ -10362,10 +10368,10 @@
         <v>651</v>
       </c>
       <c r="G188" s="4">
-        <v>282.79</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+        <v>282.79000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>652</v>
       </c>
@@ -10388,7 +10394,7 @@
         <v>145.9</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>656</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>135.25</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>658</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>128.69</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>660</v>
       </c>
@@ -10457,7 +10463,7 @@
         <v>136.07</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>664</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>126.23</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>666</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>122.13</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>668</v>
       </c>
@@ -10526,7 +10532,7 @@
         <v>225.41</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>672</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>227.87</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>674</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>204.1</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>676</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>333.61</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>680</v>
       </c>
@@ -10618,7 +10624,7 @@
         <v>1340.16</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>685</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>1340.16</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>687</v>
       </c>
@@ -10664,7 +10670,7 @@
         <v>110.66</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>692</v>
       </c>
@@ -10687,7 +10693,7 @@
         <v>390.16</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>696</v>
       </c>
@@ -10710,7 +10716,7 @@
         <v>390.16</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>698</v>
       </c>
@@ -10733,7 +10739,7 @@
         <v>201.64</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>702</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>201.64</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>706</v>
       </c>
@@ -10776,7 +10782,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>711</v>
       </c>
@@ -10793,10 +10799,10 @@
         <v>714</v>
       </c>
       <c r="G207" s="4">
-        <v>282.79</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>282.79000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>715</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>336.89</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>719</v>
       </c>
@@ -10836,7 +10842,7 @@
         <v>361.48</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>723</v>
       </c>
@@ -10859,7 +10865,7 @@
         <v>510.66</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>728</v>
       </c>
@@ -10882,7 +10888,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>733</v>
       </c>
@@ -10905,7 +10911,7 @@
         <v>253.28</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>737</v>
       </c>
@@ -10928,7 +10934,7 @@
         <v>134.43</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>742</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>191.8</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>747</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>99.18</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>751</v>
       </c>
@@ -10997,7 +11003,7 @@
         <v>965.57</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>755</v>
       </c>
@@ -11020,7 +11026,7 @@
         <v>965.57</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>758</v>
       </c>
@@ -11043,7 +11049,7 @@
         <v>361.48</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>763</v>
       </c>
@@ -11066,7 +11072,7 @@
         <v>361.48</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>766</v>
       </c>
@@ -11089,7 +11095,7 @@
         <v>361.48</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>768</v>
       </c>
@@ -11112,7 +11118,7 @@
         <v>428.69</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>772</v>
       </c>
@@ -11135,7 +11141,7 @@
         <v>428.69</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>774</v>
       </c>
@@ -11158,7 +11164,7 @@
         <v>428.69</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>776</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>498.36</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1">
       <c r="A225" s="3" t="s">
         <v>780</v>
       </c>
@@ -11204,7 +11210,7 @@
         <v>498.36</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>782</v>
       </c>
@@ -11227,7 +11233,7 @@
         <v>498.36</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>784</v>
       </c>
@@ -11250,7 +11256,7 @@
         <v>189.34</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>788</v>
       </c>
@@ -11267,10 +11273,10 @@
         <v>792</v>
       </c>
       <c r="G228" s="4">
-        <v>282.79</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+        <v>282.79000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>793</v>
       </c>
@@ -11290,7 +11296,7 @@
         <v>658.2</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>797</v>
       </c>
@@ -11310,7 +11316,7 @@
         <v>9489.34</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>801</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>957.38</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>805</v>
       </c>
@@ -11350,7 +11356,7 @@
         <v>853.28</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>809</v>
       </c>
@@ -11367,10 +11373,10 @@
         <v>812</v>
       </c>
       <c r="G233" s="4">
-        <v>1133.61</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>1133.6099999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1">
       <c r="A234" s="3" t="s">
         <v>813</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>1203.28</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>817</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>821</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>1154.92</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>825</v>
       </c>
@@ -11450,7 +11456,7 @@
         <v>2367.21</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1">
       <c r="A238" s="3" t="s">
         <v>829</v>
       </c>
@@ -11470,7 +11476,7 @@
         <v>3417.21</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1">
       <c r="A239" s="3" t="s">
         <v>833</v>
       </c>
@@ -11493,7 +11499,7 @@
         <v>176.23</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1">
       <c r="A240" s="3" t="s">
         <v>838</v>
       </c>
@@ -11516,7 +11522,7 @@
         <v>176.23</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>841</v>
       </c>
@@ -11536,7 +11542,7 @@
         <v>227.05</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>846</v>
       </c>
@@ -11556,7 +11562,7 @@
         <v>177.87</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1">
       <c r="A243" s="3" t="s">
         <v>850</v>
       </c>
@@ -11576,10 +11582,10 @@
         <v>854</v>
       </c>
       <c r="G243" s="4">
-        <v>289.34</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+        <v>289.33999999999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1">
       <c r="A244" s="3" t="s">
         <v>855</v>
       </c>
@@ -11599,10 +11605,10 @@
         <v>856</v>
       </c>
       <c r="G244" s="4">
-        <v>289.34</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
+        <v>289.33999999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" customHeight="1">
       <c r="A245" s="3" t="s">
         <v>857</v>
       </c>
@@ -11622,10 +11628,10 @@
         <v>859</v>
       </c>
       <c r="G245" s="4">
-        <v>289.34</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>289.33999999999997</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" customHeight="1">
       <c r="A246" s="3" t="s">
         <v>860</v>
       </c>
@@ -11645,10 +11651,10 @@
         <v>861</v>
       </c>
       <c r="G246" s="4">
-        <v>289.34</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
+        <v>289.33999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>862</v>
       </c>
@@ -11671,7 +11677,7 @@
         <v>347.54</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>866</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>293.44</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>870</v>
       </c>
@@ -11714,10 +11720,10 @@
         <v>874</v>
       </c>
       <c r="G249" s="4">
-        <v>65.57</v>
-      </c>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1">
       <c r="A250" s="3" t="s">
         <v>875</v>
       </c>
@@ -11737,10 +11743,10 @@
         <v>878</v>
       </c>
       <c r="G250" s="4">
-        <v>81.15</v>
-      </c>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
+        <v>81.150000000000006</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>879</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>187.7</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>883</v>
       </c>
@@ -11786,7 +11792,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>887</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>540.98</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>891</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>826.23</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>895</v>
       </c>
@@ -11849,10 +11855,10 @@
         <v>898</v>
       </c>
       <c r="G255" s="4">
-        <v>282.79</v>
-      </c>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
+        <v>282.79000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" customHeight="1">
       <c r="A256" s="3" t="s">
         <v>899</v>
       </c>
@@ -11872,7 +11878,7 @@
         <v>504.1</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>903</v>
       </c>
@@ -11892,7 +11898,7 @@
         <v>186.89</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1">
       <c r="A258" s="3" t="s">
         <v>908</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>186.89</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1">
       <c r="A259" s="3" t="s">
         <v>912</v>
       </c>
@@ -11932,7 +11938,7 @@
         <v>198.36</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1">
       <c r="A260" s="3" t="s">
         <v>916</v>
       </c>
@@ -11952,7 +11958,7 @@
         <v>575.41</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1">
       <c r="A261" s="3" t="s">
         <v>920</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>1778.69</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1">
       <c r="A262" s="3" t="s">
         <v>924</v>
       </c>
@@ -11992,7 +11998,7 @@
         <v>1778.69</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1">
       <c r="A263" s="3" t="s">
         <v>928</v>
       </c>
@@ -12009,10 +12015,10 @@
         <v>931</v>
       </c>
       <c r="G263" s="4">
-        <v>2134.43</v>
-      </c>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
+        <v>2134.4299999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" customHeight="1">
       <c r="A264" s="3" t="s">
         <v>932</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>73.77</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1">
       <c r="A265" s="3" t="s">
         <v>937</v>
       </c>
@@ -12058,7 +12064,7 @@
         <v>97.54</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1">
       <c r="A266" s="3" t="s">
         <v>939</v>
       </c>
@@ -12081,7 +12087,7 @@
         <v>104.92</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="3" t="s">
         <v>942</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1">
       <c r="A268" s="3" t="s">
         <v>946</v>
       </c>
@@ -12127,7 +12133,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1">
       <c r="A269" s="3" t="s">
         <v>949</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>33.61</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1">
       <c r="A270" s="3" t="s">
         <v>952</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1">
       <c r="A271" s="3" t="s">
         <v>956</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>60.66</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1">
       <c r="A272" s="3" t="s">
         <v>959</v>
       </c>
@@ -12219,7 +12225,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="3" t="s">
         <v>962</v>
       </c>
@@ -12242,7 +12248,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1">
       <c r="A274" s="3" t="s">
         <v>966</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1">
       <c r="A275" s="3" t="s">
         <v>969</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1">
       <c r="A276" s="3" t="s">
         <v>972</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1">
       <c r="A277" s="3" t="s">
         <v>976</v>
       </c>
@@ -12334,7 +12340,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1">
       <c r="A278" s="3" t="s">
         <v>978</v>
       </c>
@@ -12357,7 +12363,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1">
       <c r="A279" s="3" t="s">
         <v>980</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1">
       <c r="A280" s="3" t="s">
         <v>984</v>
       </c>
@@ -12403,7 +12409,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1">
       <c r="A281" s="3" t="s">
         <v>987</v>
       </c>
@@ -12426,7 +12432,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1">
       <c r="A282" s="3" t="s">
         <v>990</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>327.87</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1">
       <c r="A283" s="3" t="s">
         <v>994</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>316.39</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1">
       <c r="A284" s="3" t="s">
         <v>996</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>327.87</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1">
       <c r="A285" s="3" t="s">
         <v>998</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>177.05</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1">
       <c r="A286" s="3" t="s">
         <v>1003</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>724.59</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1">
       <c r="A287" s="3" t="s">
         <v>1007</v>
       </c>
@@ -12564,7 +12570,7 @@
         <v>724.59</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1">
       <c r="A288" s="3" t="s">
         <v>1009</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>365.57</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1">
       <c r="A289" s="3" t="s">
         <v>1013</v>
       </c>
@@ -12610,7 +12616,7 @@
         <v>365.57</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1">
       <c r="A290" s="3" t="s">
         <v>1015</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>407.38</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1">
       <c r="A291" s="3" t="s">
         <v>1019</v>
       </c>
@@ -12656,7 +12662,7 @@
         <v>840.16</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1">
       <c r="A292" s="3" t="s">
         <v>1023</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>262.3</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1">
       <c r="A293" s="3" t="s">
         <v>1028</v>
       </c>
@@ -12702,7 +12708,7 @@
         <v>262.3</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1">
       <c r="A294" s="3" t="s">
         <v>1030</v>
       </c>
@@ -12725,7 +12731,7 @@
         <v>860.66</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1">
       <c r="A295" s="3" t="s">
         <v>1035</v>
       </c>
@@ -12748,7 +12754,7 @@
         <v>890.98</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1">
       <c r="A296" s="3" t="s">
         <v>1039</v>
       </c>
@@ -12771,7 +12777,7 @@
         <v>431.15</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1">
       <c r="A297" s="3" t="s">
         <v>1044</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>379.51</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1">
       <c r="A298" s="3" t="s">
         <v>1048</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>1788.52</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1">
       <c r="A299" s="3" t="s">
         <v>1054</v>
       </c>
@@ -12840,7 +12846,7 @@
         <v>1788.52</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1">
       <c r="A300" s="3" t="s">
         <v>1057</v>
       </c>
@@ -12863,7 +12869,7 @@
         <v>1788.52</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1">
       <c r="A301" s="3" t="s">
         <v>1060</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>1788.52</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1">
       <c r="A302" s="3" t="s">
         <v>1063</v>
       </c>
@@ -12909,7 +12915,7 @@
         <v>1942.62</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1">
       <c r="A303" s="3" t="s">
         <v>1067</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>1942.62</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1">
       <c r="A304" s="3" t="s">
         <v>1069</v>
       </c>
@@ -12955,7 +12961,7 @@
         <v>1942.62</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1">
       <c r="A305" s="3" t="s">
         <v>1071</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>1942.62</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A306" s="3" t="s">
         <v>1073</v>
       </c>
@@ -13001,7 +13007,7 @@
         <v>2376.23</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1">
       <c r="A307" s="3" t="s">
         <v>1077</v>
       </c>
@@ -13024,7 +13030,7 @@
         <v>2376.23</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1">
       <c r="A308" s="3" t="s">
         <v>1079</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>2376.23</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1">
       <c r="A309" s="3" t="s">
         <v>1081</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>2376.23</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1">
       <c r="A310" s="3" t="s">
         <v>1083</v>
       </c>
@@ -13093,7 +13099,7 @@
         <v>272.13</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1">
       <c r="A311" s="3" t="s">
         <v>1087</v>
       </c>
@@ -13113,7 +13119,7 @@
         <v>140.16</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1">
       <c r="A312" s="3" t="s">
         <v>1092</v>
       </c>
@@ -13133,7 +13139,7 @@
         <v>165.57</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1">
       <c r="A313" s="3" t="s">
         <v>1096</v>
       </c>
@@ -13153,7 +13159,7 @@
         <v>211.48</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1">
       <c r="A314" s="3" t="s">
         <v>1100</v>
       </c>
@@ -13176,7 +13182,7 @@
         <v>18.03</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1">
       <c r="A315" s="3" t="s">
         <v>1104</v>
       </c>
@@ -13199,7 +13205,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1">
       <c r="A316" s="3" t="s">
         <v>1108</v>
       </c>
@@ -13219,7 +13225,7 @@
         <v>305.74</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1">
       <c r="A317" s="3" t="s">
         <v>1112</v>
       </c>
@@ -13239,7 +13245,7 @@
         <v>345.9</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1">
       <c r="A318" s="3" t="s">
         <v>1116</v>
       </c>
@@ -13259,7 +13265,7 @@
         <v>405.74</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1">
       <c r="A319" s="3" t="s">
         <v>1120</v>
       </c>
@@ -13279,7 +13285,7 @@
         <v>205.74</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1">
       <c r="A320" s="3" t="s">
         <v>1124</v>
       </c>
@@ -13299,7 +13305,7 @@
         <v>124.59</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" customHeight="1">
       <c r="A321" s="3" t="s">
         <v>1128</v>
       </c>
@@ -13319,10 +13325,10 @@
         <v>1131</v>
       </c>
       <c r="G321" s="4">
-        <v>158.2</v>
-      </c>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" customHeight="1">
       <c r="A322" s="3" t="s">
         <v>1132</v>
       </c>
@@ -13345,7 +13351,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1">
       <c r="A323" s="3" t="s">
         <v>1136</v>
       </c>
@@ -13368,7 +13374,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1">
       <c r="A324" s="3" t="s">
         <v>1138</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1">
       <c r="A325" s="3" t="s">
         <v>1141</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1">
       <c r="A326" s="3" t="s">
         <v>1145</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1">
       <c r="A327" s="3" t="s">
         <v>1147</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>479.51</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1">
       <c r="A328" s="3" t="s">
         <v>1149</v>
       </c>
@@ -13483,7 +13489,7 @@
         <v>1208.2</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1">
       <c r="A329" s="3" t="s">
         <v>1153</v>
       </c>
@@ -13506,7 +13512,7 @@
         <v>1208.2</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1">
       <c r="A330" s="3" t="s">
         <v>1155</v>
       </c>
@@ -13529,7 +13535,7 @@
         <v>1208.2</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1">
       <c r="A331" s="3" t="s">
         <v>1157</v>
       </c>
@@ -13549,10 +13555,10 @@
         <v>1160</v>
       </c>
       <c r="G331" s="4">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" customHeight="1">
       <c r="A332" s="3" t="s">
         <v>1161</v>
       </c>
@@ -13572,10 +13578,10 @@
         <v>1162</v>
       </c>
       <c r="G332" s="4">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" customHeight="1">
       <c r="A333" s="3" t="s">
         <v>1163</v>
       </c>
@@ -13595,10 +13601,10 @@
         <v>1164</v>
       </c>
       <c r="G333" s="4">
-        <v>1350.0</v>
-      </c>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1">
       <c r="A334" s="3" t="s">
         <v>1165</v>
       </c>
@@ -13618,10 +13624,10 @@
         <v>1168</v>
       </c>
       <c r="G334" s="4">
-        <v>2186.07</v>
-      </c>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
+        <v>2186.0700000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1">
       <c r="A335" s="3" t="s">
         <v>1169</v>
       </c>
@@ -13641,10 +13647,10 @@
         <v>1170</v>
       </c>
       <c r="G335" s="4">
-        <v>2186.07</v>
-      </c>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
+        <v>2186.0700000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1">
       <c r="A336" s="3" t="s">
         <v>1171</v>
       </c>
@@ -13664,10 +13670,10 @@
         <v>1172</v>
       </c>
       <c r="G336" s="4">
-        <v>2186.07</v>
-      </c>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
+        <v>2186.0700000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1">
       <c r="A337" s="3" t="s">
         <v>1173</v>
       </c>
@@ -13690,7 +13696,7 @@
         <v>875.41</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1">
       <c r="A338" s="3" t="s">
         <v>1177</v>
       </c>
@@ -13713,7 +13719,7 @@
         <v>875.41</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1">
       <c r="A339" s="3" t="s">
         <v>1179</v>
       </c>
@@ -13736,7 +13742,7 @@
         <v>875.41</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1">
       <c r="A340" s="3" t="s">
         <v>1181</v>
       </c>
@@ -13759,7 +13765,7 @@
         <v>899.18</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1">
       <c r="A341" s="3" t="s">
         <v>1185</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>899.18</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1">
       <c r="A342" s="3" t="s">
         <v>1187</v>
       </c>
@@ -13805,7 +13811,7 @@
         <v>899.18</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1">
       <c r="A343" s="3" t="s">
         <v>1189</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>802.46</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1">
       <c r="A344" s="3" t="s">
         <v>1193</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>802.46</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:7" ht="15.75" customHeight="1">
       <c r="A345" s="3" t="s">
         <v>1195</v>
       </c>
@@ -13874,7 +13880,7 @@
         <v>802.46</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1">
       <c r="A346" s="3" t="s">
         <v>1197</v>
       </c>
@@ -13897,7 +13903,7 @@
         <v>240.98</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1">
       <c r="A347" s="3" t="s">
         <v>1201</v>
       </c>
@@ -13920,7 +13926,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1">
       <c r="A348" s="3" t="s">
         <v>1205</v>
       </c>
@@ -13943,7 +13949,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1">
       <c r="A349" s="3" t="s">
         <v>1207</v>
       </c>
@@ -13966,7 +13972,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1">
       <c r="A350" s="3" t="s">
         <v>1209</v>
       </c>
@@ -13989,7 +13995,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1">
       <c r="A351" s="3" t="s">
         <v>1213</v>
       </c>
@@ -14012,7 +14018,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1">
       <c r="A352" s="3" t="s">
         <v>1215</v>
       </c>
@@ -14035,7 +14041,7 @@
         <v>490.16</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1">
       <c r="A353" s="3" t="s">
         <v>1217</v>
       </c>
@@ -14058,7 +14064,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1">
       <c r="A354" s="3" t="s">
         <v>1222</v>
       </c>
@@ -14081,7 +14087,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:7" ht="15.75" customHeight="1">
       <c r="A355" s="3" t="s">
         <v>1224</v>
       </c>
@@ -14104,7 +14110,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1">
       <c r="A356" s="3" t="s">
         <v>1226</v>
       </c>
@@ -14127,7 +14133,7 @@
         <v>49.18</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1">
       <c r="A357" s="3" t="s">
         <v>1228</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1">
       <c r="A358" s="3" t="s">
         <v>1232</v>
       </c>
@@ -14173,7 +14179,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:7" ht="15.75" customHeight="1">
       <c r="A359" s="3" t="s">
         <v>1235</v>
       </c>
@@ -14196,7 +14202,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1">
       <c r="A360" s="3" t="s">
         <v>1237</v>
       </c>
@@ -14219,7 +14225,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:7" ht="15.75" customHeight="1">
       <c r="A361" s="3" t="s">
         <v>1239</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1">
       <c r="A362" s="3" t="s">
         <v>1241</v>
       </c>
@@ -14265,7 +14271,7 @@
         <v>285.25</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1">
       <c r="A363" s="3" t="s">
         <v>1245</v>
       </c>
@@ -14288,7 +14294,7 @@
         <v>285.25</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1">
       <c r="A364" s="3" t="s">
         <v>1247</v>
       </c>
@@ -14311,7 +14317,7 @@
         <v>285.25</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1">
       <c r="A365" s="3" t="s">
         <v>1249</v>
       </c>
@@ -14334,7 +14340,7 @@
         <v>285.25</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1">
       <c r="A366" s="3" t="s">
         <v>1251</v>
       </c>
@@ -14354,7 +14360,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1">
       <c r="A367" s="3" t="s">
         <v>1256</v>
       </c>
@@ -14377,7 +14383,7 @@
         <v>381.15</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1">
       <c r="A368" s="3" t="s">
         <v>1261</v>
       </c>
@@ -14400,7 +14406,7 @@
         <v>381.15</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1">
       <c r="A369" s="3" t="s">
         <v>1264</v>
       </c>
@@ -14423,7 +14429,7 @@
         <v>381.15</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1">
       <c r="A370" s="3" t="s">
         <v>1267</v>
       </c>
@@ -14446,7 +14452,7 @@
         <v>327.05</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1">
       <c r="A371" s="3" t="s">
         <v>1271</v>
       </c>
@@ -14469,7 +14475,7 @@
         <v>327.05</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1">
       <c r="A372" s="3" t="s">
         <v>1273</v>
       </c>
@@ -14492,7 +14498,7 @@
         <v>327.05</v>
       </c>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1">
       <c r="A373" s="3" t="s">
         <v>1275</v>
       </c>
@@ -14512,7 +14518,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1">
       <c r="A374" s="3" t="s">
         <v>1280</v>
       </c>
@@ -14535,7 +14541,7 @@
         <v>731.97</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1">
       <c r="A375" s="3" t="s">
         <v>1284</v>
       </c>
@@ -14558,7 +14564,7 @@
         <v>668.85</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1">
       <c r="A376" s="3" t="s">
         <v>1288</v>
       </c>
@@ -14581,7 +14587,7 @@
         <v>817.21</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1">
       <c r="A377" s="3" t="s">
         <v>1292</v>
       </c>
@@ -14604,7 +14610,7 @@
         <v>766.39</v>
       </c>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1">
       <c r="A378" s="3" t="s">
         <v>1296</v>
       </c>
@@ -14627,7 +14633,7 @@
         <v>744.26</v>
       </c>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1">
       <c r="A379" s="3" t="s">
         <v>1300</v>
       </c>
@@ -14650,7 +14656,7 @@
         <v>886.89</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1">
       <c r="A380" s="3" t="s">
         <v>1304</v>
       </c>
@@ -14673,7 +14679,7 @@
         <v>1477.05</v>
       </c>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1">
       <c r="A381" s="3" t="s">
         <v>1308</v>
       </c>
@@ -14696,7 +14702,7 @@
         <v>1590.98</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1">
       <c r="A382" s="3" t="s">
         <v>1312</v>
       </c>
@@ -14719,7 +14725,7 @@
         <v>2681.15</v>
       </c>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1">
       <c r="A383" s="3" t="s">
         <v>1316</v>
       </c>
@@ -14742,7 +14748,7 @@
         <v>1981.97</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1">
       <c r="A384" s="3" t="s">
         <v>1320</v>
       </c>
@@ -14765,7 +14771,7 @@
         <v>2235.25</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1">
       <c r="A385" s="3" t="s">
         <v>1324</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>568.85</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1">
       <c r="A386" s="3" t="s">
         <v>1330</v>
       </c>
@@ -14811,7 +14817,7 @@
         <v>568.85</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1">
       <c r="A387" s="3" t="s">
         <v>1332</v>
       </c>
@@ -14834,7 +14840,7 @@
         <v>874.59</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1">
       <c r="A388" s="3" t="s">
         <v>1336</v>
       </c>
@@ -14857,7 +14863,7 @@
         <v>874.59</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1">
       <c r="A389" s="3" t="s">
         <v>1338</v>
       </c>
@@ -14877,7 +14883,7 @@
         <v>656.56</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1">
       <c r="A390" s="3" t="s">
         <v>1342</v>
       </c>
@@ -14897,7 +14903,7 @@
         <v>656.56</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1">
       <c r="A391" s="3" t="s">
         <v>1346</v>
       </c>
@@ -14920,7 +14926,7 @@
         <v>364.75</v>
       </c>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1">
       <c r="A392" s="3" t="s">
         <v>1351</v>
       </c>
@@ -14943,7 +14949,7 @@
         <v>153.28</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1">
       <c r="A393" s="3" t="s">
         <v>1356</v>
       </c>
@@ -14966,7 +14972,7 @@
         <v>153.28</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1">
       <c r="A394" s="3" t="s">
         <v>1359</v>
       </c>
@@ -14989,7 +14995,7 @@
         <v>153.28</v>
       </c>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1">
       <c r="A395" s="3" t="s">
         <v>1362</v>
       </c>
@@ -15012,7 +15018,7 @@
         <v>181.97</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1">
       <c r="A396" s="3" t="s">
         <v>1366</v>
       </c>
@@ -15035,7 +15041,7 @@
         <v>181.97</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1">
       <c r="A397" s="3" t="s">
         <v>1368</v>
       </c>
@@ -15058,7 +15064,7 @@
         <v>181.97</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:7" ht="15.75" customHeight="1">
       <c r="A398" s="3" t="s">
         <v>1370</v>
       </c>
@@ -15075,10 +15081,10 @@
         <v>1373</v>
       </c>
       <c r="G398" s="4">
-        <v>39.34</v>
-      </c>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" customHeight="1">
       <c r="A399" s="3" t="s">
         <v>1374</v>
       </c>
@@ -15098,7 +15104,7 @@
         <v>59.84</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1">
       <c r="A400" s="3" t="s">
         <v>1378</v>
       </c>
@@ -15121,7 +15127,7 @@
         <v>313.93</v>
       </c>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1">
       <c r="A401" s="3" t="s">
         <v>1382</v>
       </c>
@@ -15144,7 +15150,7 @@
         <v>475.41</v>
       </c>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1">
       <c r="A402" s="3" t="s">
         <v>1386</v>
       </c>
@@ -15167,7 +15173,7 @@
         <v>1674.59</v>
       </c>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1">
       <c r="A403" s="3" t="s">
         <v>1391</v>
       </c>
@@ -15190,7 +15196,7 @@
         <v>1709.84</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1">
       <c r="A404" s="3" t="s">
         <v>1394</v>
       </c>
@@ -15213,7 +15219,7 @@
         <v>1674.59</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1">
       <c r="A405" s="3" t="s">
         <v>1398</v>
       </c>
@@ -15236,7 +15242,7 @@
         <v>1709.84</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1">
       <c r="A406" s="3" t="s">
         <v>1400</v>
       </c>
@@ -15259,7 +15265,7 @@
         <v>240.98</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1">
       <c r="A407" s="3" t="s">
         <v>1405</v>
       </c>
@@ -15282,7 +15288,7 @@
         <v>321.31</v>
       </c>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1">
       <c r="A408" s="3" t="s">
         <v>1407</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>45.08</v>
       </c>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1">
       <c r="A409" s="3" t="s">
         <v>1412</v>
       </c>
@@ -15325,7 +15331,7 @@
         <v>435.25</v>
       </c>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1">
       <c r="A410" s="3" t="s">
         <v>1416</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>454.1</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1">
       <c r="A411" s="3" t="s">
         <v>1418</v>
       </c>
@@ -15371,7 +15377,7 @@
         <v>454.1</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1">
       <c r="A412" s="3" t="s">
         <v>1421</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>532.79</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1">
       <c r="A413" s="3" t="s">
         <v>1425</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>567.21</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1">
       <c r="A414" s="3" t="s">
         <v>1427</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>567.21</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1">
       <c r="A415" s="3" t="s">
         <v>1429</v>
       </c>
@@ -15463,7 +15469,7 @@
         <v>514.75</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1">
       <c r="A416" s="3" t="s">
         <v>1433</v>
       </c>
@@ -15486,7 +15492,7 @@
         <v>75.41</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1">
       <c r="A417" s="3" t="s">
         <v>1438</v>
       </c>
@@ -15509,7 +15515,7 @@
         <v>125.41</v>
       </c>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1">
       <c r="A418" s="3" t="s">
         <v>1442</v>
       </c>
@@ -15532,7 +15538,7 @@
         <v>211.48</v>
       </c>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1">
       <c r="A419" s="3" t="s">
         <v>1446</v>
       </c>
@@ -15552,7 +15558,7 @@
         <v>116.39</v>
       </c>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1">
       <c r="A420" s="3" t="s">
         <v>1450</v>
       </c>
@@ -15572,7 +15578,7 @@
         <v>127.05</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1">
       <c r="A421" s="3" t="s">
         <v>1454</v>
       </c>
@@ -15595,7 +15601,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1">
       <c r="A422" s="3" t="s">
         <v>1458</v>
       </c>
@@ -15618,7 +15624,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1">
       <c r="A423" s="3" t="s">
         <v>1461</v>
       </c>
@@ -15641,7 +15647,7 @@
         <v>229.51</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1">
       <c r="A424" s="3" t="s">
         <v>1465</v>
       </c>
@@ -15664,7 +15670,7 @@
         <v>236.07</v>
       </c>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1">
       <c r="A425" s="3" t="s">
         <v>1467</v>
       </c>
@@ -15684,7 +15690,7 @@
         <v>99.18</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1">
       <c r="A426" s="3" t="s">
         <v>1471</v>
       </c>
@@ -15704,7 +15710,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1">
       <c r="A427" s="3" t="s">
         <v>1475</v>
       </c>
@@ -15724,7 +15730,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1">
       <c r="A428" s="3" t="s">
         <v>1479</v>
       </c>
@@ -15747,7 +15753,7 @@
         <v>156.56</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1">
       <c r="A429" s="3" t="s">
         <v>1483</v>
       </c>
@@ -15770,7 +15776,7 @@
         <v>167.21</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1">
       <c r="A430" s="3" t="s">
         <v>1485</v>
       </c>
@@ -15793,7 +15799,7 @@
         <v>122.13</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1">
       <c r="A431" s="3" t="s">
         <v>1489</v>
       </c>
@@ -15816,7 +15822,7 @@
         <v>134.43</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1">
       <c r="A432" s="3" t="s">
         <v>1491</v>
       </c>
@@ -15839,7 +15845,7 @@
         <v>172.13</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1">
       <c r="A433" s="3" t="s">
         <v>1495</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>185.25</v>
       </c>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1">
       <c r="A434" s="3" t="s">
         <v>1497</v>
       </c>
@@ -15885,7 +15891,7 @@
         <v>174.59</v>
       </c>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1">
       <c r="A435" s="3" t="s">
         <v>1501</v>
       </c>
@@ -15908,7 +15914,7 @@
         <v>204.1</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1">
       <c r="A436" s="3" t="s">
         <v>1503</v>
       </c>
@@ -15931,7 +15937,7 @@
         <v>381.15</v>
       </c>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1">
       <c r="A437" s="3" t="s">
         <v>1507</v>
       </c>
@@ -15951,10 +15957,10 @@
         <v>1508</v>
       </c>
       <c r="G437" s="4">
-        <v>628.69</v>
-      </c>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
+        <v>628.69000000000005</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="15.75" customHeight="1">
       <c r="A438" s="3" t="s">
         <v>1509</v>
       </c>
@@ -15977,7 +15983,7 @@
         <v>405.74</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1">
       <c r="A439" s="3" t="s">
         <v>1513</v>
       </c>
@@ -16000,7 +16006,7 @@
         <v>711.48</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1">
       <c r="A440" s="3" t="s">
         <v>1515</v>
       </c>
@@ -16020,7 +16026,7 @@
         <v>157.38</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1">
       <c r="A441" s="3" t="s">
         <v>1519</v>
       </c>
@@ -16040,7 +16046,7 @@
         <v>103.28</v>
       </c>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:7" ht="15.75" customHeight="1">
       <c r="A442" s="3" t="s">
         <v>1523</v>
       </c>
@@ -16060,7 +16066,7 @@
         <v>113.93</v>
       </c>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:7" ht="15.75" customHeight="1">
       <c r="A443" s="3" t="s">
         <v>1527</v>
       </c>
@@ -16083,7 +16089,7 @@
         <v>1030.33</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:7" ht="15.75" customHeight="1">
       <c r="A444" s="3" t="s">
         <v>1532</v>
       </c>
@@ -16106,7 +16112,7 @@
         <v>1030.33</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:7" ht="15.75" customHeight="1">
       <c r="A445" s="3" t="s">
         <v>1535</v>
       </c>
@@ -16129,7 +16135,7 @@
         <v>1030.33</v>
       </c>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:7" ht="15.75" customHeight="1">
       <c r="A446" s="3" t="s">
         <v>1537</v>
       </c>
@@ -16152,7 +16158,7 @@
         <v>1640.16</v>
       </c>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:7" ht="15.75" customHeight="1">
       <c r="A447" s="3" t="s">
         <v>1541</v>
       </c>
@@ -16175,7 +16181,7 @@
         <v>1640.16</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:7" ht="15.75" customHeight="1">
       <c r="A448" s="3" t="s">
         <v>1543</v>
       </c>
@@ -16198,7 +16204,7 @@
         <v>1640.16</v>
       </c>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:7" ht="15.75" customHeight="1">
       <c r="A449" s="3" t="s">
         <v>1545</v>
       </c>
@@ -16221,7 +16227,7 @@
         <v>110.66</v>
       </c>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:7" ht="15.75" customHeight="1">
       <c r="A450" s="3" t="s">
         <v>1549</v>
       </c>
@@ -16244,7 +16250,7 @@
         <v>193.44</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:7" ht="15.75" customHeight="1">
       <c r="A451" s="3" t="s">
         <v>1553</v>
       </c>
@@ -16267,7 +16273,7 @@
         <v>164.75</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:7" ht="15.75" customHeight="1">
       <c r="A452" s="3" t="s">
         <v>1557</v>
       </c>
@@ -16290,7 +16296,7 @@
         <v>279.51</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:7" ht="15.75" customHeight="1">
       <c r="A453" s="3" t="s">
         <v>1561</v>
       </c>
@@ -16313,7 +16319,7 @@
         <v>849.18</v>
       </c>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:7" ht="15.75" customHeight="1">
       <c r="A454" s="3" t="s">
         <v>1565</v>
       </c>
@@ -16333,10 +16339,10 @@
         <v>1568</v>
       </c>
       <c r="G454" s="4">
-        <v>1057.38</v>
-      </c>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
+        <v>1057.3800000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" customHeight="1">
       <c r="A455" s="3" t="s">
         <v>1569</v>
       </c>
@@ -16359,7 +16365,7 @@
         <v>1018.85</v>
       </c>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:7" ht="15.75" customHeight="1">
       <c r="A456" s="3" t="s">
         <v>1573</v>
       </c>
@@ -16382,7 +16388,7 @@
         <v>1096.72</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1">
       <c r="A457" s="3" t="s">
         <v>1577</v>
       </c>
@@ -16405,7 +16411,7 @@
         <v>999.18</v>
       </c>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:7" ht="15.75" customHeight="1">
       <c r="A458" s="3" t="s">
         <v>1581</v>
       </c>
@@ -16428,7 +16434,7 @@
         <v>1014.75</v>
       </c>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:7" ht="15.75" customHeight="1">
       <c r="A459" s="3" t="s">
         <v>1585</v>
       </c>
@@ -16451,7 +16457,7 @@
         <v>747.54</v>
       </c>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:7" ht="15.75" customHeight="1">
       <c r="A460" s="3" t="s">
         <v>1589</v>
       </c>
@@ -16474,7 +16480,7 @@
         <v>510.66</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:7" ht="15.75" customHeight="1">
       <c r="A461" s="3" t="s">
         <v>1593</v>
       </c>
@@ -16497,7 +16503,7 @@
         <v>263.93</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:7" ht="15.75" customHeight="1">
       <c r="A462" s="3" t="s">
         <v>1597</v>
       </c>
@@ -16517,7 +16523,7 @@
         <v>86.89</v>
       </c>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:7" ht="15.75" customHeight="1">
       <c r="A463" s="3" t="s">
         <v>1602</v>
       </c>
@@ -16537,7 +16543,7 @@
         <v>126.23</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:7" ht="15.75" customHeight="1">
       <c r="A464" s="3" t="s">
         <v>1606</v>
       </c>
@@ -16554,10 +16560,10 @@
         <v>1609</v>
       </c>
       <c r="G464" s="4">
-        <v>162.3</v>
-      </c>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" customHeight="1">
       <c r="A465" s="3" t="s">
         <v>1610</v>
       </c>
@@ -16580,7 +16586,7 @@
         <v>461.48</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:7" ht="15.75" customHeight="1">
       <c r="A466" s="3" t="s">
         <v>1614</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>93.44</v>
       </c>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:7" ht="15.75" customHeight="1">
       <c r="A467" s="3" t="s">
         <v>1619</v>
       </c>
@@ -16626,7 +16632,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:7" ht="15.75" customHeight="1">
       <c r="A468" s="3" t="s">
         <v>1623</v>
       </c>
@@ -16649,7 +16655,7 @@
         <v>344.26</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:7" ht="15.75" customHeight="1">
       <c r="A469" s="3" t="s">
         <v>1627</v>
       </c>
@@ -16672,7 +16678,7 @@
         <v>350.82</v>
       </c>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:7" ht="15.75" customHeight="1">
       <c r="A470" s="3" t="s">
         <v>1631</v>
       </c>
@@ -16692,10 +16698,10 @@
         <v>1634</v>
       </c>
       <c r="G470" s="4">
-        <v>515.57</v>
-      </c>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
+        <v>515.57000000000005</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" customHeight="1">
       <c r="A471" s="3" t="s">
         <v>1635</v>
       </c>
@@ -16715,10 +16721,10 @@
         <v>1638</v>
       </c>
       <c r="G471" s="4">
-        <v>521.31</v>
-      </c>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
+        <v>521.30999999999995</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" customHeight="1">
       <c r="A472" s="3" t="s">
         <v>1639</v>
       </c>
@@ -16741,7 +16747,7 @@
         <v>539.34</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:7" ht="15.75" customHeight="1">
       <c r="A473" s="3" t="s">
         <v>1644</v>
       </c>
@@ -16764,7 +16770,7 @@
         <v>539.34</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:7" ht="15.75" customHeight="1">
       <c r="A474" s="3" t="s">
         <v>1646</v>
       </c>
@@ -16787,7 +16793,7 @@
         <v>539.34</v>
       </c>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:7" ht="15.75" customHeight="1">
       <c r="A475" s="3" t="s">
         <v>1648</v>
       </c>
@@ -16810,7 +16816,7 @@
         <v>609.84</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1">
       <c r="A476" s="3" t="s">
         <v>1652</v>
       </c>
@@ -16833,7 +16839,7 @@
         <v>609.84</v>
       </c>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1">
       <c r="A477" s="3" t="s">
         <v>1654</v>
       </c>
@@ -16856,7 +16862,7 @@
         <v>609.84</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:7" ht="15.75" customHeight="1">
       <c r="A478" s="3" t="s">
         <v>1656</v>
       </c>
@@ -16879,7 +16885,7 @@
         <v>680.33</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:7" ht="15.75" customHeight="1">
       <c r="A479" s="3" t="s">
         <v>1660</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>680.33</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:7" ht="15.75" customHeight="1">
       <c r="A480" s="3" t="s">
         <v>1664</v>
       </c>
@@ -16925,7 +16931,7 @@
         <v>680.33</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:7" ht="15.75" customHeight="1">
       <c r="A481" s="3" t="s">
         <v>1667</v>
       </c>
@@ -16948,7 +16954,7 @@
         <v>680.33</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:7" ht="15.75" customHeight="1">
       <c r="A482" s="3" t="s">
         <v>1670</v>
       </c>
@@ -16968,10 +16974,10 @@
         <v>1674</v>
       </c>
       <c r="G482" s="4">
-        <v>622.95</v>
-      </c>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
+        <v>622.95000000000005</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="15.75" customHeight="1">
       <c r="A483" s="3" t="s">
         <v>1675</v>
       </c>
@@ -16991,10 +16997,10 @@
         <v>1676</v>
       </c>
       <c r="G483" s="4">
-        <v>622.95</v>
-      </c>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
+        <v>622.95000000000005</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="15.75" customHeight="1">
       <c r="A484" s="3" t="s">
         <v>1677</v>
       </c>
@@ -17017,7 +17023,7 @@
         <v>684.43</v>
       </c>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:7" ht="15.75" customHeight="1">
       <c r="A485" s="3" t="s">
         <v>1681</v>
       </c>
@@ -17040,7 +17046,7 @@
         <v>684.43</v>
       </c>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:7" ht="15.75" customHeight="1">
       <c r="A486" s="3" t="s">
         <v>1683</v>
       </c>
@@ -17063,7 +17069,7 @@
         <v>127.05</v>
       </c>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:7" ht="15.75" customHeight="1">
       <c r="A487" s="3" t="s">
         <v>1687</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>127.05</v>
       </c>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:7" ht="15.75" customHeight="1">
       <c r="A488" s="3" t="s">
         <v>1689</v>
       </c>
@@ -17109,7 +17115,7 @@
         <v>140.16</v>
       </c>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:7" ht="15.75" customHeight="1">
       <c r="A489" s="3" t="s">
         <v>1693</v>
       </c>
@@ -17132,7 +17138,7 @@
         <v>140.16</v>
       </c>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:7" ht="15.75" customHeight="1">
       <c r="A490" s="3" t="s">
         <v>1695</v>
       </c>
@@ -17152,7 +17158,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:7" ht="15.75" customHeight="1">
       <c r="A491" s="3" t="s">
         <v>1699</v>
       </c>
@@ -17172,7 +17178,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:7" ht="15.75" customHeight="1">
       <c r="A492" s="3" t="s">
         <v>1701</v>
       </c>
@@ -17192,7 +17198,7 @@
         <v>255.74</v>
       </c>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:7" ht="15.75" customHeight="1">
       <c r="A493" s="3" t="s">
         <v>1703</v>
       </c>
@@ -17209,10 +17215,10 @@
         <v>1706</v>
       </c>
       <c r="G493" s="4">
-        <v>290.16</v>
-      </c>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
+        <v>290.16000000000003</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="15.75" customHeight="1">
       <c r="A494" s="3" t="s">
         <v>1707</v>
       </c>
@@ -17229,10 +17235,10 @@
         <v>1708</v>
       </c>
       <c r="G494" s="4">
-        <v>290.16</v>
-      </c>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
+        <v>290.16000000000003</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="15.75" customHeight="1">
       <c r="A495" s="3" t="s">
         <v>1709</v>
       </c>
@@ -17249,10 +17255,10 @@
         <v>1710</v>
       </c>
       <c r="G495" s="4">
-        <v>290.16</v>
-      </c>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
+        <v>290.16000000000003</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="15.75" customHeight="1">
       <c r="A496" s="3" t="s">
         <v>1711</v>
       </c>
@@ -17272,7 +17278,7 @@
         <v>322.95</v>
       </c>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:7" ht="15.75" customHeight="1">
       <c r="A497" s="3" t="s">
         <v>1715</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>322.95</v>
       </c>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:7" ht="15.75" customHeight="1">
       <c r="A498" s="3" t="s">
         <v>1717</v>
       </c>
@@ -17312,7 +17318,7 @@
         <v>322.95</v>
       </c>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:7" ht="15.75" customHeight="1">
       <c r="A499" s="3" t="s">
         <v>1719</v>
       </c>
@@ -17332,7 +17338,7 @@
         <v>300.82</v>
       </c>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:7" ht="15.75" customHeight="1">
       <c r="A500" s="3" t="s">
         <v>1723</v>
       </c>
@@ -17352,7 +17358,7 @@
         <v>300.82</v>
       </c>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:7" ht="15.75" customHeight="1">
       <c r="A501" s="3" t="s">
         <v>1725</v>
       </c>
@@ -17372,7 +17378,7 @@
         <v>300.82</v>
       </c>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:7" ht="15.75" customHeight="1">
       <c r="A502" s="3" t="s">
         <v>1727</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>368.03</v>
       </c>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:7" ht="15.75" customHeight="1">
       <c r="A503" s="3" t="s">
         <v>1731</v>
       </c>
@@ -17412,7 +17418,7 @@
         <v>368.03</v>
       </c>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:7" ht="15.75" customHeight="1">
       <c r="A504" s="3" t="s">
         <v>1733</v>
       </c>
@@ -17432,7 +17438,7 @@
         <v>368.03</v>
       </c>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:7" ht="15.75" customHeight="1">
       <c r="A505" s="3" t="s">
         <v>1735</v>
       </c>
@@ -17452,7 +17458,7 @@
         <v>420.49</v>
       </c>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:7" ht="15.75" customHeight="1">
       <c r="A506" s="3" t="s">
         <v>1739</v>
       </c>
@@ -17472,7 +17478,7 @@
         <v>420.49</v>
       </c>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:7" ht="15.75" customHeight="1">
       <c r="A507" s="3" t="s">
         <v>1741</v>
       </c>
@@ -17492,7 +17498,7 @@
         <v>420.49</v>
       </c>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:7" ht="15.75" customHeight="1">
       <c r="A508" s="3" t="s">
         <v>1743</v>
       </c>
@@ -17512,7 +17518,7 @@
         <v>168.03</v>
       </c>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:7" ht="15.75" customHeight="1">
       <c r="A509" s="3" t="s">
         <v>1748</v>
       </c>
@@ -17529,10 +17535,10 @@
         <v>1751</v>
       </c>
       <c r="G509" s="4">
-        <v>67.21</v>
-      </c>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
+        <v>67.209999999999994</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" customHeight="1">
       <c r="A510" s="3" t="s">
         <v>1752</v>
       </c>
@@ -17552,7 +17558,7 @@
         <v>168.03</v>
       </c>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:7" ht="15.75" customHeight="1">
       <c r="A511" s="3" t="s">
         <v>1756</v>
       </c>
@@ -17572,7 +17578,7 @@
         <v>213.93</v>
       </c>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:7" ht="15.75" customHeight="1">
       <c r="A512" s="3" t="s">
         <v>1760</v>
       </c>
@@ -17592,7 +17598,7 @@
         <v>143.44</v>
       </c>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:7" ht="15.75" customHeight="1">
       <c r="A513" s="3" t="s">
         <v>1764</v>
       </c>
@@ -17612,7 +17618,7 @@
         <v>213.93</v>
       </c>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:7" ht="15.75" customHeight="1">
       <c r="A514" s="3" t="s">
         <v>1768</v>
       </c>
@@ -17632,7 +17638,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:7" ht="15.75" customHeight="1">
       <c r="A515" s="3" t="s">
         <v>1772</v>
       </c>
@@ -17652,7 +17658,7 @@
         <v>178.69</v>
       </c>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:7" ht="15.75" customHeight="1">
       <c r="A516" s="3" t="s">
         <v>1776</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:7" ht="15.75" customHeight="1">
       <c r="A517" s="3" t="s">
         <v>1780</v>
       </c>
@@ -17692,7 +17698,7 @@
         <v>233.61</v>
       </c>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:7" ht="15.75" customHeight="1">
       <c r="A518" s="3" t="s">
         <v>1784</v>
       </c>
@@ -17715,7 +17721,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:7" ht="15.75" customHeight="1">
       <c r="A519" s="3" t="s">
         <v>1788</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:7" ht="15.75" customHeight="1">
       <c r="A520" s="3" t="s">
         <v>1790</v>
       </c>
@@ -17761,7 +17767,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:7" ht="15.75" customHeight="1">
       <c r="A521" s="3" t="s">
         <v>1792</v>
       </c>
@@ -17784,7 +17790,7 @@
         <v>100.82</v>
       </c>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:7" ht="15.75" customHeight="1">
       <c r="A522" s="3" t="s">
         <v>1794</v>
       </c>
@@ -17804,10 +17810,10 @@
         <v>1797</v>
       </c>
       <c r="G522" s="4">
-        <v>137.7</v>
-      </c>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" customHeight="1">
       <c r="A523" s="3" t="s">
         <v>1798</v>
       </c>
@@ -17827,10 +17833,10 @@
         <v>1799</v>
       </c>
       <c r="G523" s="4">
-        <v>137.7</v>
-      </c>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" customHeight="1">
       <c r="A524" s="3" t="s">
         <v>1800</v>
       </c>
@@ -17850,10 +17856,10 @@
         <v>1801</v>
       </c>
       <c r="G524" s="4">
-        <v>137.7</v>
-      </c>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" customHeight="1">
       <c r="A525" s="3" t="s">
         <v>1802</v>
       </c>
@@ -17873,10 +17879,10 @@
         <v>1803</v>
       </c>
       <c r="G525" s="4">
-        <v>137.7</v>
-      </c>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" customHeight="1">
       <c r="A526" s="3" t="s">
         <v>1804</v>
       </c>
@@ -17899,7 +17905,7 @@
         <v>155.74</v>
       </c>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:7" ht="15.75" customHeight="1">
       <c r="A527" s="3" t="s">
         <v>1808</v>
       </c>
@@ -17922,7 +17928,7 @@
         <v>155.74</v>
       </c>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:7" ht="15.75" customHeight="1">
       <c r="A528" s="3" t="s">
         <v>1810</v>
       </c>
@@ -17945,7 +17951,7 @@
         <v>155.74</v>
       </c>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:7" ht="15.75" customHeight="1">
       <c r="A529" s="3" t="s">
         <v>1812</v>
       </c>
@@ -17968,7 +17974,7 @@
         <v>155.74</v>
       </c>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:7" ht="15.75" customHeight="1">
       <c r="A530" s="3" t="s">
         <v>1814</v>
       </c>
@@ -17991,7 +17997,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:7" ht="15.75" customHeight="1">
       <c r="A531" s="3" t="s">
         <v>1818</v>
       </c>
@@ -18014,7 +18020,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:7" ht="15.75" customHeight="1">
       <c r="A532" s="3" t="s">
         <v>1820</v>
       </c>
@@ -18037,7 +18043,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:7" ht="15.75" customHeight="1">
       <c r="A533" s="3" t="s">
         <v>1822</v>
       </c>
@@ -18060,7 +18066,7 @@
         <v>186.07</v>
       </c>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:7" ht="15.75" customHeight="1">
       <c r="A534" s="3" t="s">
         <v>1824</v>
       </c>
@@ -18083,7 +18089,7 @@
         <v>171.31</v>
       </c>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:7" ht="15.75" customHeight="1">
       <c r="A535" s="3" t="s">
         <v>1828</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>171.31</v>
       </c>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:7" ht="15.75" customHeight="1">
       <c r="A536" s="3" t="s">
         <v>1830</v>
       </c>
@@ -18129,7 +18135,7 @@
         <v>171.31</v>
       </c>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:7" ht="15.75" customHeight="1">
       <c r="A537" s="3" t="s">
         <v>1832</v>
       </c>
@@ -18152,7 +18158,7 @@
         <v>171.31</v>
       </c>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:7" ht="15.75" customHeight="1">
       <c r="A538" s="3" t="s">
         <v>1834</v>
       </c>
@@ -18175,7 +18181,7 @@
         <v>169.67</v>
       </c>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:7" ht="15.75" customHeight="1">
       <c r="A539" s="3" t="s">
         <v>1838</v>
       </c>
@@ -18198,7 +18204,7 @@
         <v>169.67</v>
       </c>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:7" ht="15.75" customHeight="1">
       <c r="A540" s="3" t="s">
         <v>1840</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>169.67</v>
       </c>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:7" ht="15.75" customHeight="1">
       <c r="A541" s="3" t="s">
         <v>1842</v>
       </c>
@@ -18244,7 +18250,7 @@
         <v>169.67</v>
       </c>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:7" ht="15.75" customHeight="1">
       <c r="A542" s="3" t="s">
         <v>1844</v>
       </c>
@@ -18264,10 +18270,10 @@
         <v>1847</v>
       </c>
       <c r="G542" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1">
       <c r="A543" s="3" t="s">
         <v>1848</v>
       </c>
@@ -18287,10 +18293,10 @@
         <v>1849</v>
       </c>
       <c r="G543" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1">
       <c r="A544" s="3" t="s">
         <v>1850</v>
       </c>
@@ -18310,10 +18316,10 @@
         <v>1851</v>
       </c>
       <c r="G544" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1">
       <c r="A545" s="3" t="s">
         <v>1852</v>
       </c>
@@ -18333,10 +18339,10 @@
         <v>1853</v>
       </c>
       <c r="G545" s="4">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1">
       <c r="A546" s="3" t="s">
         <v>1854</v>
       </c>
@@ -18356,7 +18362,7 @@
         <v>106.56</v>
       </c>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:7" ht="15.75" customHeight="1">
       <c r="A547" s="3" t="s">
         <v>1859</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>106.56</v>
       </c>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:7" ht="15.75" customHeight="1">
       <c r="A548" s="3" t="s">
         <v>1863</v>
       </c>
@@ -18396,7 +18402,7 @@
         <v>121.31</v>
       </c>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:7" ht="15.75" customHeight="1">
       <c r="A549" s="3" t="s">
         <v>1867</v>
       </c>
@@ -18416,7 +18422,7 @@
         <v>121.31</v>
       </c>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:7" ht="15.75" customHeight="1">
       <c r="A550" s="3" t="s">
         <v>1871</v>
       </c>
@@ -18436,10 +18442,10 @@
         <v>1874</v>
       </c>
       <c r="G550" s="4">
-        <v>267.21</v>
-      </c>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
+        <v>267.20999999999998</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1">
       <c r="A551" s="3" t="s">
         <v>1875</v>
       </c>
@@ -18459,10 +18465,10 @@
         <v>1876</v>
       </c>
       <c r="G551" s="4">
-        <v>267.21</v>
-      </c>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
+        <v>267.20999999999998</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1">
       <c r="A552" s="3" t="s">
         <v>1877</v>
       </c>
@@ -18482,10 +18488,10 @@
         <v>1878</v>
       </c>
       <c r="G552" s="4">
-        <v>267.21</v>
-      </c>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
+        <v>267.20999999999998</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1">
       <c r="A553" s="3" t="s">
         <v>1879</v>
       </c>
@@ -18505,10 +18511,10 @@
         <v>1880</v>
       </c>
       <c r="G553" s="4">
-        <v>267.21</v>
-      </c>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
+        <v>267.20999999999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1">
       <c r="A554" s="3" t="s">
         <v>1881</v>
       </c>
@@ -18528,10 +18534,10 @@
         <v>1884</v>
       </c>
       <c r="G554" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1">
       <c r="A555" s="3" t="s">
         <v>1885</v>
       </c>
@@ -18551,10 +18557,10 @@
         <v>1886</v>
       </c>
       <c r="G555" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1">
       <c r="A556" s="3" t="s">
         <v>1887</v>
       </c>
@@ -18574,10 +18580,10 @@
         <v>1888</v>
       </c>
       <c r="G556" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1">
       <c r="A557" s="3" t="s">
         <v>1889</v>
       </c>
@@ -18597,10 +18603,10 @@
         <v>1890</v>
       </c>
       <c r="G557" s="4">
-        <v>302.46</v>
-      </c>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
+        <v>302.45999999999998</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1">
       <c r="A558" s="3" t="s">
         <v>1891</v>
       </c>
@@ -18623,7 +18629,7 @@
         <v>245.08</v>
       </c>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:7" ht="15.75" customHeight="1">
       <c r="A559" s="3" t="s">
         <v>1895</v>
       </c>
@@ -18646,7 +18652,7 @@
         <v>245.08</v>
       </c>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:7" ht="15.75" customHeight="1">
       <c r="A560" s="3" t="s">
         <v>1897</v>
       </c>
@@ -18669,7 +18675,7 @@
         <v>245.08</v>
       </c>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:7" ht="15.75" customHeight="1">
       <c r="A561" s="3" t="s">
         <v>1899</v>
       </c>
@@ -18692,7 +18698,7 @@
         <v>245.08</v>
       </c>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:7" ht="15.75" customHeight="1">
       <c r="A562" s="3" t="s">
         <v>1901</v>
       </c>
@@ -18715,7 +18721,7 @@
         <v>283.61</v>
       </c>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:7" ht="15.75" customHeight="1">
       <c r="A563" s="3" t="s">
         <v>1905</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>283.61</v>
       </c>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:7" ht="15.75" customHeight="1">
       <c r="A564" s="3" t="s">
         <v>1907</v>
       </c>
@@ -18761,7 +18767,7 @@
         <v>283.61</v>
       </c>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:7" ht="15.75" customHeight="1">
       <c r="A565" s="3" t="s">
         <v>1909</v>
       </c>
@@ -18784,7 +18790,7 @@
         <v>283.61</v>
       </c>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:7" ht="15.75" customHeight="1">
       <c r="A566" s="3" t="s">
         <v>1911</v>
       </c>
@@ -18807,7 +18813,7 @@
         <v>266.39</v>
       </c>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:7" ht="15.75" customHeight="1">
       <c r="A567" s="3" t="s">
         <v>1916</v>
       </c>
@@ -18830,7 +18836,7 @@
         <v>266.39</v>
       </c>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1">
       <c r="A568" s="3" t="s">
         <v>1918</v>
       </c>
@@ -18853,7 +18859,7 @@
         <v>285.25</v>
       </c>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:7" ht="15.75" customHeight="1">
       <c r="A569" s="3" t="s">
         <v>1920</v>
       </c>
@@ -18874,14 +18880,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$569"/>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="portrait"/>
+  <autoFilter ref="A1:G569"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/xls/luceplan/luceplan_originario.xlsx
+++ b/xls/luceplan/luceplan_originario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38140" yWindow="-4540" windowWidth="35200" windowHeight="17320"/>
+    <workbookView xWindow="4660" yWindow="1920" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="541">
   <si>
     <t>Descrizione</t>
   </si>
@@ -1645,6 +1645,15 @@
   </si>
   <si>
     <t xml:space="preserve">Dimensioni </t>
+  </si>
+  <si>
+    <t>1D30/0600025,1D30/0200004,1D30/04/0125,1D30/04/0225,1D30/04/0325,1D30/0500004</t>
+  </si>
+  <si>
+    <t>1D170Q/01023,1D170Q/01024,1D170Q/01027,1D170Q/01036,1D170Q/02020</t>
+  </si>
+  <si>
+    <t>Accessori</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,6 +1760,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2058,7 +2073,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2068,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2081,9 +2096,11 @@
     <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="31.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
         <v>529</v>
       </c>
@@ -2123,8 +2140,11 @@
       <c r="M1" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2150,8 +2170,9 @@
       <c r="M2" s="7">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2179,8 +2200,11 @@
       <c r="M3" s="7">
         <v>282.79000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2208,8 +2232,11 @@
       <c r="M4" s="7">
         <v>336.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2237,8 +2264,11 @@
       <c r="M5" s="7">
         <v>361.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -2264,8 +2294,9 @@
       <c r="M6" s="7">
         <v>510.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2294,8 +2325,9 @@
       <c r="M7" s="7">
         <v>347.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -2324,8 +2356,9 @@
       <c r="M8" s="7">
         <v>293.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -2354,8 +2387,9 @@
       <c r="M9" s="7">
         <v>431.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -2384,8 +2418,9 @@
       <c r="M10" s="7">
         <v>379.51</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -2416,8 +2451,9 @@
       <c r="M11" s="7">
         <v>347.54</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -2448,8 +2484,9 @@
       <c r="M12" s="7">
         <v>347.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -2480,8 +2517,9 @@
       <c r="M13" s="7">
         <v>335.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>71</v>
       </c>
@@ -2512,8 +2550,9 @@
       <c r="M14" s="7">
         <v>335.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -2541,8 +2580,9 @@
       <c r="M15" s="7">
         <v>1340.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>79</v>
       </c>
@@ -2570,8 +2610,9 @@
       <c r="M16" s="7">
         <v>1340.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -2597,8 +2638,9 @@
       <c r="M17" s="7">
         <v>333.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -2626,8 +2668,9 @@
       <c r="M18" s="7">
         <v>875.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
@@ -2655,8 +2698,9 @@
       <c r="M19" s="7">
         <v>875.41</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -2684,8 +2728,9 @@
       <c r="M20" s="7">
         <v>875.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
@@ -2713,8 +2758,9 @@
       <c r="M21" s="7">
         <v>899.18</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>105</v>
       </c>
@@ -2742,8 +2788,9 @@
       <c r="M22" s="7">
         <v>899.18</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -2771,8 +2818,9 @@
       <c r="M23" s="7">
         <v>899.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>109</v>
       </c>
@@ -2798,8 +2846,9 @@
       <c r="M24" s="7">
         <v>177.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
@@ -2827,8 +2876,9 @@
       <c r="M25" s="7">
         <v>724.59</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
@@ -2856,8 +2906,9 @@
       <c r="M26" s="7">
         <v>724.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>123</v>
       </c>
@@ -2885,8 +2936,9 @@
       <c r="M27" s="7">
         <v>365.57</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>129</v>
       </c>
@@ -2914,8 +2966,9 @@
       <c r="M28" s="7">
         <v>365.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>131</v>
       </c>
@@ -2941,8 +2994,11 @@
       <c r="M29" s="7">
         <v>407.38</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>135</v>
       </c>
@@ -2970,8 +3026,9 @@
       <c r="M30" s="7">
         <v>262.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>142</v>
       </c>
@@ -2999,8 +3056,9 @@
       <c r="M31" s="7">
         <v>262.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
         <v>145</v>
       </c>
@@ -3029,8 +3087,9 @@
       <c r="M32" s="7">
         <v>860.66</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
         <v>152</v>
       </c>
@@ -3059,8 +3118,9 @@
       <c r="M33" s="7">
         <v>890.98</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
         <v>157</v>
       </c>
@@ -3088,8 +3148,9 @@
       <c r="M34" s="7">
         <v>176.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
         <v>164</v>
       </c>
@@ -3117,8 +3178,9 @@
       <c r="M35" s="7">
         <v>176.23</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
         <v>167</v>
       </c>
@@ -3146,8 +3208,9 @@
       <c r="M36" s="7">
         <v>240.98</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
         <v>173</v>
       </c>
@@ -3175,8 +3238,9 @@
       <c r="M37" s="7">
         <v>321.31</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
         <v>176</v>
       </c>
@@ -3204,8 +3268,9 @@
       <c r="M38" s="7">
         <v>282.79000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
         <v>184</v>
       </c>
@@ -3233,8 +3298,9 @@
       <c r="M39" s="7">
         <v>658.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
         <v>190</v>
       </c>
@@ -3262,8 +3328,9 @@
       <c r="M40" s="7">
         <v>9489.34</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
         <v>196</v>
       </c>
@@ -3291,8 +3358,9 @@
       <c r="M41" s="7">
         <v>957.38</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
         <v>203</v>
       </c>
@@ -3320,8 +3388,9 @@
       <c r="M42" s="7">
         <v>853.28</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
         <v>207</v>
       </c>
@@ -3349,8 +3418,9 @@
       <c r="M43" s="7">
         <v>1133.6099999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
         <v>212</v>
       </c>
@@ -3375,8 +3445,9 @@
       <c r="M44" s="7">
         <v>1203.28</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
         <v>217</v>
       </c>
@@ -3401,8 +3472,9 @@
       <c r="M45" s="7">
         <v>490.16</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
         <v>222</v>
       </c>
@@ -3427,8 +3499,9 @@
       <c r="M46" s="7">
         <v>1154.92</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
         <v>227</v>
       </c>
@@ -3456,8 +3529,9 @@
       <c r="M47" s="7">
         <v>2367.21</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
         <v>232</v>
       </c>
@@ -3485,8 +3559,9 @@
       <c r="M48" s="7">
         <v>3417.21</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
         <v>237</v>
       </c>
@@ -3512,8 +3587,9 @@
       <c r="M49" s="7">
         <v>272.13</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
         <v>242</v>
       </c>
@@ -3539,8 +3615,9 @@
       <c r="M50" s="7">
         <v>189.34</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="15"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="10" t="s">
         <v>248</v>
       </c>
@@ -3574,8 +3651,11 @@
       <c r="M51" s="12">
         <v>2650.82</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="10" t="s">
         <v>256</v>
       </c>
@@ -3609,8 +3689,11 @@
       <c r="M52" s="12">
         <v>2748.36</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="10" t="s">
         <v>261</v>
       </c>
@@ -3644,8 +3727,11 @@
       <c r="M53" s="12">
         <v>2748.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
         <v>266</v>
       </c>
@@ -3679,8 +3765,11 @@
       <c r="M54" s="12">
         <v>2748.36</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="10" t="s">
         <v>271</v>
       </c>
@@ -3714,8 +3803,11 @@
       <c r="M55" s="12">
         <v>2748.36</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="10" t="s">
         <v>276</v>
       </c>
@@ -3749,8 +3841,11 @@
       <c r="M56" s="12">
         <v>3413.11</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="10" t="s">
         <v>281</v>
       </c>
@@ -3784,8 +3879,11 @@
       <c r="M57" s="12">
         <v>3498.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="10" t="s">
         <v>285</v>
       </c>
@@ -3819,8 +3917,11 @@
       <c r="M58" s="12">
         <v>3498.36</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="10" t="s">
         <v>289</v>
       </c>
@@ -3854,8 +3955,11 @@
       <c r="M59" s="12">
         <v>3498.36</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="10" t="s">
         <v>293</v>
       </c>
@@ -3889,8 +3993,11 @@
       <c r="M60" s="12">
         <v>3498.36</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="10" t="s">
         <v>297</v>
       </c>
@@ -3924,8 +4031,11 @@
       <c r="M61" s="12">
         <v>2726.23</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="10" t="s">
         <v>302</v>
       </c>
@@ -3959,8 +4069,11 @@
       <c r="M62" s="12">
         <v>2868.85</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="10" t="s">
         <v>306</v>
       </c>
@@ -3994,8 +4107,11 @@
       <c r="M63" s="12">
         <v>2868.85</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
         <v>310</v>
       </c>
@@ -4029,8 +4145,11 @@
       <c r="M64" s="12">
         <v>2868.85</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="10" t="s">
         <v>314</v>
       </c>
@@ -4064,8 +4183,11 @@
       <c r="M65" s="12">
         <v>2868.85</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="10" t="s">
         <v>318</v>
       </c>
@@ -4099,8 +4221,11 @@
       <c r="M66" s="12">
         <v>3425.41</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="10" t="s">
         <v>322</v>
       </c>
@@ -4134,8 +4259,11 @@
       <c r="M67" s="12">
         <v>3568.03</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="10" t="s">
         <v>326</v>
       </c>
@@ -4169,8 +4297,11 @@
       <c r="M68" s="12">
         <v>3568.03</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="10" t="s">
         <v>330</v>
       </c>
@@ -4204,8 +4335,11 @@
       <c r="M69" s="12">
         <v>3568.03</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="10" t="s">
         <v>334</v>
       </c>
@@ -4239,8 +4373,11 @@
       <c r="M70" s="12">
         <v>3568.03</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="10" t="s">
         <v>338</v>
       </c>
@@ -4268,8 +4405,9 @@
       <c r="M71" s="12">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="15"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
         <v>344</v>
       </c>
@@ -4295,8 +4433,14 @@
       <c r="K72" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="M72" s="14">
+        <v>1477.05</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
         <v>348</v>
       </c>
@@ -4322,8 +4466,14 @@
       <c r="K73" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="M73" s="14">
+        <v>1590.98</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="4" t="s">
         <v>351</v>
       </c>
@@ -4343,8 +4493,12 @@
       <c r="G74" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="M74" s="14">
+        <v>2235.25</v>
+      </c>
+      <c r="N74" s="15"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
         <v>355</v>
       </c>
@@ -4372,8 +4526,9 @@
       <c r="M75" s="7">
         <v>840.16</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="15"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
         <v>360</v>
       </c>
@@ -4399,8 +4554,9 @@
       <c r="M76" s="7">
         <v>31.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="15"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
         <v>367</v>
       </c>
@@ -4429,8 +4585,9 @@
       <c r="M77" s="7">
         <v>22.95</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="15"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
         <v>373</v>
       </c>
@@ -4459,8 +4616,9 @@
       <c r="M78" s="7">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="15"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="4" t="s">
         <v>378</v>
       </c>
@@ -4489,8 +4647,9 @@
       <c r="M79" s="7">
         <v>56.56</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="15"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="4" t="s">
         <v>383</v>
       </c>
@@ -4516,8 +4675,9 @@
       <c r="M80" s="7">
         <v>44.26</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="15"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="4" t="s">
         <v>388</v>
       </c>
@@ -4543,8 +4703,9 @@
       <c r="M81" s="7">
         <v>63.93</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="15"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="4" t="s">
         <v>393</v>
       </c>
@@ -4572,8 +4733,11 @@
       <c r="M82" s="7">
         <v>126.23</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="4" t="s">
         <v>400</v>
       </c>
@@ -4601,8 +4765,11 @@
       <c r="M83" s="7">
         <v>126.23</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="4" t="s">
         <v>404</v>
       </c>
@@ -4630,8 +4797,11 @@
       <c r="M84" s="7">
         <v>126.23</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="4" t="s">
         <v>408</v>
       </c>
@@ -4659,8 +4829,9 @@
       <c r="M85" s="7">
         <v>1674.59</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="15"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="4" t="s">
         <v>414</v>
       </c>
@@ -4688,8 +4859,9 @@
       <c r="M86" s="7">
         <v>1709.84</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="15"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="4" t="s">
         <v>417</v>
       </c>
@@ -4717,8 +4889,9 @@
       <c r="M87" s="7">
         <v>1674.59</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="15"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="4" t="s">
         <v>422</v>
       </c>
@@ -4746,8 +4919,9 @@
       <c r="M88" s="7">
         <v>1709.84</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="4" t="s">
         <v>424</v>
       </c>
@@ -4776,8 +4950,9 @@
       <c r="M89" s="7">
         <v>336.89</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="15"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="4" t="s">
         <v>432</v>
       </c>
@@ -4806,8 +4981,9 @@
       <c r="M90" s="7">
         <v>279.51</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="15"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="4" t="s">
         <v>437</v>
       </c>
@@ -4833,8 +5009,9 @@
       <c r="M91" s="7">
         <v>459.02</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="15"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="4" t="s">
         <v>442</v>
       </c>
@@ -4860,8 +5037,9 @@
       <c r="M92" s="7">
         <v>335.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="15"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="4" t="s">
         <v>447</v>
       </c>
@@ -4889,8 +5067,9 @@
       <c r="M93" s="7">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="15"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="4" t="s">
         <v>455</v>
       </c>
@@ -4918,8 +5097,9 @@
       <c r="M94" s="7">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="4" t="s">
         <v>458</v>
       </c>
@@ -4947,8 +5127,9 @@
       <c r="M95" s="7">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="15"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="4" t="s">
         <v>461</v>
       </c>
@@ -4976,8 +5157,9 @@
       <c r="M96" s="7">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="4" t="s">
         <v>464</v>
       </c>
@@ -5003,8 +5185,9 @@
       <c r="M97" s="7">
         <v>178.69</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
         <v>469</v>
       </c>
@@ -5030,8 +5213,11 @@
       <c r="M98" s="7">
         <v>875.41</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
         <v>473</v>
       </c>
@@ -5057,8 +5243,9 @@
       <c r="M99" s="7">
         <v>367.21</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
         <v>479</v>
       </c>
@@ -5084,8 +5271,9 @@
       <c r="M100" s="7">
         <v>377.05</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="15"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
         <v>485</v>
       </c>
@@ -5111,8 +5299,9 @@
       <c r="M101" s="7">
         <v>416.39</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="15"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
         <v>491</v>
       </c>
@@ -5138,8 +5327,9 @@
       <c r="M102" s="7">
         <v>421.31</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="15"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
         <v>496</v>
       </c>
@@ -5168,8 +5358,9 @@
       <c r="M103" s="7">
         <v>560.66</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="15"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
         <v>502</v>
       </c>
@@ -5198,8 +5389,9 @@
       <c r="M104" s="7">
         <v>527.04999999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="15"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
         <v>506</v>
       </c>
@@ -5228,8 +5420,9 @@
       <c r="M105" s="7">
         <v>1026.23</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="15"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
         <v>511</v>
       </c>
@@ -5258,8 +5451,9 @@
       <c r="M106" s="7">
         <v>1017.21</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="15"/>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="4" t="s">
         <v>176</v>
       </c>
@@ -5287,8 +5481,9 @@
       <c r="M107" s="7">
         <v>282.79000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="15"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="4" t="s">
         <v>184</v>
       </c>
@@ -5316,8 +5511,9 @@
       <c r="M108" s="7">
         <v>658.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="15"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="4" t="s">
         <v>190</v>
       </c>
@@ -5345,8 +5541,9 @@
       <c r="M109" s="7">
         <v>9489.34</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="15"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="4" t="s">
         <v>196</v>
       </c>
@@ -5374,8 +5571,9 @@
       <c r="M110" s="7">
         <v>957.38</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="15"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="4" t="s">
         <v>203</v>
       </c>
@@ -5403,8 +5601,9 @@
       <c r="M111" s="7">
         <v>853.28</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="15"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="4" t="s">
         <v>207</v>
       </c>
@@ -5432,6 +5631,7 @@
       <c r="M112" s="7">
         <v>1133.6099999999999</v>
       </c>
+      <c r="N112" s="15"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="4" t="s">
@@ -5458,6 +5658,7 @@
       <c r="M113" s="7">
         <v>1203.28</v>
       </c>
+      <c r="N113" s="15"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="4" t="s">
@@ -5484,6 +5685,7 @@
       <c r="M114" s="7">
         <v>490.16</v>
       </c>
+      <c r="N114" s="15"/>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="4" t="s">
@@ -5510,6 +5712,7 @@
       <c r="M115" s="7">
         <v>1154.92</v>
       </c>
+      <c r="N115" s="15"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="4" t="s">
@@ -5539,6 +5742,7 @@
       <c r="M116" s="7">
         <v>2367.21</v>
       </c>
+      <c r="N116" s="15"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="4" t="s">
@@ -5568,6 +5772,7 @@
       <c r="M117" s="7">
         <v>3417.21</v>
       </c>
+      <c r="N117" s="15"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="4" t="s">
@@ -5598,6 +5803,7 @@
       <c r="M118" s="7">
         <v>156.56</v>
       </c>
+      <c r="N118" s="15"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="4" t="s">
@@ -5628,6 +5834,7 @@
       <c r="M119" s="7">
         <v>167.21</v>
       </c>
+      <c r="N119" s="15"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="4" t="s">
@@ -5659,7 +5866,7 @@
       <c r="M120" s="13">
         <v>157.38</v>
       </c>
-      <c r="N120" s="6"/>
+      <c r="N120" s="15"/>
       <c r="O120" s="6"/>
     </row>
   </sheetData>

--- a/xls/luceplan/luceplan_originario.xlsx
+++ b/xls/luceplan/luceplan_originario.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1920" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-33340" yWindow="-4820" windowWidth="30760" windowHeight="23560"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$O$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$N$120</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="522">
   <si>
     <t>Descrizione</t>
   </si>
@@ -477,9 +477,6 @@
     <t>D77</t>
   </si>
   <si>
-    <t>D77NT</t>
-  </si>
-  <si>
     <t>Tango</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
     <t>TANGO Ter.LED 2700 dim.24V EU</t>
   </si>
   <si>
-    <t>D77NTW</t>
-  </si>
-  <si>
     <t>2700k</t>
   </si>
   <si>
@@ -786,9 +780,6 @@
     <t>D86</t>
   </si>
   <si>
-    <t>D86KT081</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mesh Sospensione </t>
   </si>
   <si>
@@ -807,9 +798,6 @@
     <t>MESH so.2m D. 80 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT082</t>
-  </si>
-  <si>
     <t>L cavi 2mt</t>
   </si>
   <si>
@@ -822,9 +810,6 @@
     <t>MESH so.3m D. 80 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT083</t>
-  </si>
-  <si>
     <t>L cavi 3mt</t>
   </si>
   <si>
@@ -837,9 +822,6 @@
     <t>MESH so.4m D. 80 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT084</t>
-  </si>
-  <si>
     <t>L cavi 4mt</t>
   </si>
   <si>
@@ -852,9 +834,6 @@
     <t>MESH so.5m D. 80 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT085</t>
-  </si>
-  <si>
     <t>L cavi 5mt</t>
   </si>
   <si>
@@ -867,9 +846,6 @@
     <t>MESH so.1m D.100 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT101</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ø 100cm </t>
   </si>
   <si>
@@ -882,9 +858,6 @@
     <t>MESH so.2m D.100 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT102</t>
-  </si>
-  <si>
     <t>8056304369321</t>
   </si>
   <si>
@@ -894,9 +867,6 @@
     <t>MESH so.3m D.100 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT103</t>
-  </si>
-  <si>
     <t>8056304369338</t>
   </si>
   <si>
@@ -906,9 +876,6 @@
     <t>MESH so.4m D.100 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT104</t>
-  </si>
-  <si>
     <t>8056304369345</t>
   </si>
   <si>
@@ -918,9 +885,6 @@
     <t>MESH so.5m D.100 2700K tf EU</t>
   </si>
   <si>
-    <t>D86KT105</t>
-  </si>
-  <si>
     <t>8056304369352</t>
   </si>
   <si>
@@ -930,9 +894,6 @@
     <t>MESH so.1m D. 80 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW081</t>
-  </si>
-  <si>
     <t>Mesh Led Wireless</t>
   </si>
   <si>
@@ -945,9 +906,6 @@
     <t>MESH so.2m D. 80 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW082</t>
-  </si>
-  <si>
     <t>8056304369376</t>
   </si>
   <si>
@@ -957,9 +915,6 @@
     <t>MESH so.3m D. 80 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW083</t>
-  </si>
-  <si>
     <t>8056304369383</t>
   </si>
   <si>
@@ -969,9 +924,6 @@
     <t>MESH so.4m D. 80 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW084</t>
-  </si>
-  <si>
     <t>8056304369390</t>
   </si>
   <si>
@@ -981,9 +933,6 @@
     <t>MESH so.5m D. 80 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW085</t>
-  </si>
-  <si>
     <t>8056304369406</t>
   </si>
   <si>
@@ -993,9 +942,6 @@
     <t>MESH so.1m D.100 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW101</t>
-  </si>
-  <si>
     <t>8056304369413</t>
   </si>
   <si>
@@ -1005,9 +951,6 @@
     <t>MESH so.2m D.100 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW102</t>
-  </si>
-  <si>
     <t>8056304369420</t>
   </si>
   <si>
@@ -1017,9 +960,6 @@
     <t>MESH so.3m D.100 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW103</t>
-  </si>
-  <si>
     <t>8056304369437</t>
   </si>
   <si>
@@ -1029,9 +969,6 @@
     <t>MESH so.4m D.100 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW104</t>
-  </si>
-  <si>
     <t>8056304369444</t>
   </si>
   <si>
@@ -1041,9 +978,6 @@
     <t>MESH so.5m D.100 2700K wi EU</t>
   </si>
   <si>
-    <t>D86KW105</t>
-  </si>
-  <si>
     <t>8056304369451</t>
   </si>
   <si>
@@ -1654,13 +1588,22 @@
   </si>
   <si>
     <t>Accessori</t>
+  </si>
+  <si>
+    <t>D86N</t>
+  </si>
+  <si>
+    <t>D77NT-D77NTW</t>
+  </si>
+  <si>
+    <t>D86NPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,8 +1637,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1711,6 +1670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,9 +1704,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1764,10 +1735,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
   </cellStyles>
@@ -2073,7 +2050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2081,16 +2058,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
@@ -2102,7 +2080,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2111,37 +2089,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2232,9 +2210,7 @@
       <c r="M4" s="7">
         <v>336.89</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
@@ -2264,9 +2240,7 @@
       <c r="M5" s="7">
         <v>361.48</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
@@ -2994,7 +2968,7 @@
       <c r="M29" s="7">
         <v>407.38</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3068,21 +3042,21 @@
       <c r="C32" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
+      <c r="D32" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>860.66</v>
@@ -3091,29 +3065,29 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>154</v>
+      <c r="D33" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M33" s="7">
         <v>890.98</v>
@@ -3122,28 +3096,28 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="M34" s="7">
         <v>176.23</v>
@@ -3152,28 +3126,28 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="M35" s="7">
         <v>176.23</v>
@@ -3182,28 +3156,28 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>121</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M36" s="7">
         <v>240.98</v>
@@ -3212,28 +3186,28 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>121</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>321.31</v>
@@ -3242,28 +3216,28 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="K38" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="L38" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="M38" s="7">
         <v>282.79000000000002</v>
@@ -3272,28 +3246,28 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="F39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="K39" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="L39" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="M39" s="7">
         <v>658.2</v>
@@ -3302,28 +3276,28 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M40" s="7">
         <v>9489.34</v>
@@ -3332,28 +3306,28 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="K41" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="L41" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="M41" s="7">
         <v>957.38</v>
@@ -3362,28 +3336,28 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M42" s="7">
         <v>853.28</v>
@@ -3392,28 +3366,28 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M43" s="7">
         <v>1133.6099999999999</v>
@@ -3422,25 +3396,25 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M44" s="7">
         <v>1203.28</v>
@@ -3449,25 +3423,25 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="G45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="M45" s="7">
         <v>490.16</v>
@@ -3476,25 +3450,25 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="G46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="M46" s="7">
         <v>1154.92</v>
@@ -3503,28 +3477,28 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="L47" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="M47" s="7">
         <v>2367.21</v>
@@ -3533,28 +3507,28 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M48" s="7">
         <v>3417.21</v>
@@ -3563,26 +3537,26 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M49" s="7">
         <v>272.13</v>
@@ -3591,26 +3565,26 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="M50" s="7">
         <v>189.34</v>
@@ -3619,788 +3593,748 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>251</v>
+      <c r="D51" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M51" s="12">
         <v>2650.82</v>
       </c>
-      <c r="N51" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M52" s="12">
         <v>2748.36</v>
       </c>
-      <c r="N52" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>263</v>
+        <v>248</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M53" s="12">
         <v>2748.36</v>
       </c>
-      <c r="N53" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N53" s="10"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>268</v>
+        <v>248</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M54" s="12">
         <v>2748.36</v>
       </c>
-      <c r="N54" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N54" s="10"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>273</v>
+        <v>248</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M55" s="12">
         <v>2748.36</v>
       </c>
-      <c r="N55" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>278</v>
+        <v>248</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M56" s="12">
         <v>3413.11</v>
       </c>
-      <c r="N56" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>283</v>
+        <v>248</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M57" s="12">
         <v>3498.36</v>
       </c>
-      <c r="N57" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>287</v>
+        <v>248</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M58" s="12">
         <v>3498.36</v>
       </c>
-      <c r="N58" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>291</v>
+        <v>248</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M59" s="12">
         <v>3498.36</v>
       </c>
-      <c r="N59" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N59" s="10"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="10" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>295</v>
+        <v>248</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M60" s="12">
         <v>3498.36</v>
       </c>
-      <c r="N60" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="10" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>299</v>
+        <v>248</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M61" s="12">
         <v>2726.23</v>
       </c>
-      <c r="N61" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N61" s="10"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>304</v>
+        <v>248</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="M62" s="12">
         <v>2868.85</v>
       </c>
-      <c r="N62" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N62" s="10"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="10" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>308</v>
+        <v>248</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="M63" s="12">
         <v>2868.85</v>
       </c>
-      <c r="N63" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>312</v>
+        <v>248</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="M64" s="12">
         <v>2868.85</v>
       </c>
-      <c r="N64" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N64" s="10"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="10" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>316</v>
+        <v>248</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M65" s="12">
         <v>2868.85</v>
       </c>
-      <c r="N65" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="10" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>320</v>
+        <v>248</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="M66" s="12">
         <v>3425.41</v>
       </c>
-      <c r="N66" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N66" s="10"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="10" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>324</v>
+        <v>248</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="M67" s="12">
         <v>3568.03</v>
       </c>
-      <c r="N67" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N67" s="10"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="10" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>328</v>
+        <v>248</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="M68" s="12">
         <v>3568.03</v>
       </c>
-      <c r="N68" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="10" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>332</v>
+        <v>248</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="M69" s="12">
         <v>3568.03</v>
       </c>
-      <c r="N69" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="10" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>336</v>
+        <v>248</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>519</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="M70" s="12">
         <v>3568.03</v>
       </c>
-      <c r="N70" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="10" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="M71" s="12">
         <v>104.1</v>
@@ -4409,89 +4343,87 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>346</v>
+        <v>248</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="M72" s="14">
         <v>1477.05</v>
       </c>
-      <c r="N72" s="19" t="s">
-        <v>338</v>
+      <c r="N72" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>350</v>
+        <v>248</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="M73" s="14">
         <v>1590.98</v>
       </c>
-      <c r="N73" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="N73" s="10"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="4" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="4" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M74" s="14">
         <v>2235.25</v>
@@ -4500,28 +4432,28 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="4" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="M75" s="7">
         <v>840.16</v>
@@ -4530,26 +4462,26 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="4" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="4" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="M76" s="7">
         <v>31.15</v>
@@ -4558,29 +4490,29 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="4" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="4" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M77" s="7">
         <v>22.95</v>
@@ -4589,29 +4521,29 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="4" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="4" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="M78" s="7">
         <v>43.44</v>
@@ -4620,29 +4552,29 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="4" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="4" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="M79" s="7">
         <v>56.56</v>
@@ -4651,26 +4583,26 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="4" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="4" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L80" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="L80" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="M80" s="7">
         <v>44.26</v>
@@ -4679,26 +4611,26 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="4" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="4" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M81" s="7">
         <v>63.93</v>
@@ -4707,124 +4639,120 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="4" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="M82" s="7">
         <v>126.23</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="4" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="M83" s="7">
         <v>126.23</v>
       </c>
-      <c r="N83" s="15" t="s">
-        <v>538</v>
-      </c>
+      <c r="N83" s="15"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="M84" s="7">
         <v>126.23</v>
       </c>
-      <c r="N84" s="15" t="s">
-        <v>538</v>
-      </c>
+      <c r="N84" s="15"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M85" s="7">
         <v>1674.59</v>
@@ -4833,28 +4761,28 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="4" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="M86" s="7">
         <v>1709.84</v>
@@ -4863,28 +4791,28 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="4" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="M87" s="7">
         <v>1674.59</v>
@@ -4893,28 +4821,28 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="4" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="M88" s="7">
         <v>1709.84</v>
@@ -4923,29 +4851,29 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="4" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="4" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="M89" s="7">
         <v>336.89</v>
@@ -4954,29 +4882,29 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="4" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="4" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="M90" s="7">
         <v>279.51</v>
@@ -4985,26 +4913,26 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="4" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="4" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="M91" s="7">
         <v>459.02</v>
@@ -5013,26 +4941,26 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="4" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="4" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="M92" s="7">
         <v>335.25</v>
@@ -5041,28 +4969,28 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="4" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="M93" s="7">
         <v>43.44</v>
@@ -5071,28 +4999,28 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="4" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="M94" s="7">
         <v>43.44</v>
@@ -5101,28 +5029,28 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="4" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="M95" s="7">
         <v>43.44</v>
@@ -5131,28 +5059,28 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="4" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="M96" s="7">
         <v>43.44</v>
@@ -5161,26 +5089,26 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="4" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="M97" s="7">
         <v>178.69</v>
@@ -5189,56 +5117,56 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="4" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="M98" s="7">
         <v>875.41</v>
       </c>
       <c r="N98" s="15" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="4" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="M99" s="7">
         <v>367.21</v>
@@ -5247,26 +5175,26 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="4" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="M100" s="7">
         <v>377.05</v>
@@ -5275,26 +5203,26 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="4" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="M101" s="7">
         <v>416.39</v>
@@ -5303,26 +5231,26 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="4" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>62</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="M102" s="7">
         <v>421.31</v>
@@ -5331,20 +5259,20 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="4" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>15</v>
@@ -5353,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="M103" s="7">
         <v>560.66</v>
@@ -5362,20 +5290,20 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="4" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>15</v>
@@ -5384,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="M104" s="7">
         <v>527.04999999999995</v>
@@ -5393,29 +5321,29 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="4" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="I105" s="9">
         <v>1</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="M105" s="7">
         <v>1026.23</v>
@@ -5424,29 +5352,29 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="4" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="I106" s="9">
         <v>0</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="M106" s="7">
         <v>1017.21</v>
@@ -5455,28 +5383,28 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="D107" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="G107" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="K107" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="L107" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="M107" s="7">
         <v>282.79000000000002</v>
@@ -5485,28 +5413,28 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="F108" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="K108" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G108" s="4" t="s">
+      <c r="L108" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L108" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="M108" s="7">
         <v>658.2</v>
@@ -5515,28 +5443,28 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="F109" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M109" s="7">
         <v>9489.34</v>
@@ -5545,28 +5473,28 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="G110" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="K110" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="L110" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="K110" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="M110" s="7">
         <v>957.38</v>
@@ -5575,28 +5503,28 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F111" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M111" s="7">
         <v>853.28</v>
@@ -5605,253 +5533,253 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="F112" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M112" s="7">
         <v>1133.6099999999999</v>
       </c>
       <c r="N112" s="15"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:14">
       <c r="A113" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M113" s="7">
         <v>1203.28</v>
       </c>
       <c r="N113" s="15"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:14">
       <c r="A114" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="F114" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="G114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L114" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="M114" s="7">
         <v>490.16</v>
       </c>
       <c r="N114" s="15"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:14">
       <c r="A115" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="F115" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="G115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L115" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="M115" s="7">
         <v>1154.92</v>
       </c>
       <c r="N115" s="15"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:14">
       <c r="A116" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="F116" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="L116" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="M116" s="7">
         <v>2367.21</v>
       </c>
       <c r="N116" s="15"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:14">
       <c r="A117" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="F117" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M117" s="7">
         <v>3417.21</v>
       </c>
       <c r="N117" s="15"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:14">
       <c r="A118" s="4" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H118" s="4"/>
       <c r="L118" s="5" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="M118" s="7">
         <v>156.56</v>
       </c>
       <c r="N118" s="15"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:14">
       <c r="A119" s="4" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H119" s="4"/>
       <c r="L119" s="5" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="M119" s="7">
         <v>167.21</v>
       </c>
       <c r="N119" s="15"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:14">
       <c r="A120" s="4" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="4" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>140</v>
@@ -5861,16 +5789,15 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="5" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="M120" s="13">
         <v>157.38</v>
       </c>
       <c r="N120" s="15"/>
-      <c r="O120" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O120"/>
+  <autoFilter ref="A1:N120"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/xls/luceplan/luceplan_originario.xlsx
+++ b/xls/luceplan/luceplan_originario.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="524">
   <si>
     <t>Descrizione</t>
   </si>
@@ -1597,6 +1597,12 @@
   </si>
   <si>
     <t>D86NPI</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2060,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2290,8 +2296,8 @@
       <c r="G7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="9">
-        <v>1</v>
+      <c r="J7" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>38</v>
@@ -2321,8 +2327,8 @@
       <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
+      <c r="J8" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>42</v>
@@ -5277,8 +5283,8 @@
       <c r="G103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I103" s="9">
-        <v>1</v>
+      <c r="I103" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>479</v>
@@ -5308,8 +5314,8 @@
       <c r="G104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I104" s="9">
-        <v>0</v>
+      <c r="I104" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>483</v>
@@ -5339,8 +5345,8 @@
       <c r="G105" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I105" s="9">
-        <v>1</v>
+      <c r="I105" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>488</v>
@@ -5370,8 +5376,8 @@
       <c r="G106" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I106" s="9">
-        <v>0</v>
+      <c r="I106" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>492</v>
